--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_3.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/60/Output_2_3.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1776090.599554467</v>
+        <v>-1781952.919589647</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>2220068.892516699</v>
+        <v>2280223.65389273</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>14013571.34443177</v>
+        <v>14012391.38565093</v>
       </c>
     </row>
     <row r="11">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -710,22 +710,22 @@
         <v>164.8484195083599</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>179.6426580002029</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y2" t="n">
-        <v>392.5258019886049</v>
+        <v>63.45065025599647</v>
       </c>
     </row>
     <row r="3">
@@ -744,7 +744,7 @@
         <v>128.7880777047345</v>
       </c>
       <c r="E3" t="n">
-        <v>135.0820259802211</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>123.1874880556995</v>
@@ -753,7 +753,7 @@
         <v>118.8592197488542</v>
       </c>
       <c r="H3" t="n">
-        <v>87.41444223540508</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>48.89338144820752</v>
@@ -798,10 +798,10 @@
         <v>220.3146016126436</v>
       </c>
       <c r="W3" t="n">
-        <v>42.63833102172892</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X3" t="n">
-        <v>187.4140068734885</v>
+        <v>128.0807956132113</v>
       </c>
       <c r="Y3" t="n">
         <v>177.5210747552478</v>
@@ -814,28 +814,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>110.9888717430058</v>
+        <v>154.0767819665104</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F4" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>131.7634811092929</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>30.07448747215907</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>200.7879229792761</v>
       </c>
       <c r="T4" t="n">
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>186.9186225172531</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>280.4970980481341</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -893,7 +893,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>396.4897982542829</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -905,13 +905,13 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>412.725494085322</v>
+        <v>400.5665439309277</v>
       </c>
       <c r="G5" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>320.8422199291742</v>
       </c>
       <c r="I5" t="n">
         <v>136.9537457384598</v>
@@ -953,7 +953,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>1.371210598688078</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>367.2890446813954</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>392.5258019886049</v>
       </c>
     </row>
     <row r="6">
@@ -1026,16 +1026,16 @@
         <v>133.5813703291298</v>
       </c>
       <c r="T6" t="n">
-        <v>175.2139736830806</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>207.9625118881446</v>
+        <v>101.3468060953221</v>
       </c>
       <c r="V6" t="n">
         <v>220.3146016126436</v>
       </c>
       <c r="W6" t="n">
-        <v>42.63833102172892</v>
+        <v>227.816073408046</v>
       </c>
       <c r="X6" t="n">
         <v>187.4140068734885</v>
@@ -1054,13 +1054,13 @@
         <v>183.3559385043883</v>
       </c>
       <c r="C7" t="n">
-        <v>168.5030667546707</v>
+        <v>51.608045380318</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1099,7 +1099,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>122.6619794737488</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>282.5844038405181</v>
       </c>
       <c r="V7" t="n">
-        <v>135.3271637428111</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>396.4897982542829</v>
       </c>
       <c r="C8" t="n">
-        <v>389.2437464820987</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>301.7739454952375</v>
       </c>
       <c r="E8" t="n">
         <v>398.5576896346209</v>
       </c>
       <c r="F8" t="n">
-        <v>412.725494085322</v>
+        <v>12.725494085322</v>
       </c>
       <c r="G8" t="n">
-        <v>409.0311279568768</v>
+        <v>9.031127956876844</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>136.9537457384598</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1178,13 +1178,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S8" t="n">
-        <v>152.1505774742191</v>
+        <v>164.8484195083599</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>221.2655964161775</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1193,10 +1193,10 @@
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>367.2890446813954</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>385.5580790162737</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1288,31 +1288,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>183.3559385043883</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>124.6926731360859</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>100.3434053864689</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>154.0032240193895</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.5715133615489</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>153.923765528121</v>
       </c>
       <c r="I10" t="n">
         <v>131.7634811092929</v>
       </c>
       <c r="J10" t="n">
-        <v>0</v>
+        <v>30.07448747215907</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -1354,10 +1354,10 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>231.7395189948467</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C11" t="n">
-        <v>318.1654340873667</v>
+        <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E11" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F11" t="n">
-        <v>341.6471816905901</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
         <v>337.9528155621449</v>
       </c>
       <c r="H11" t="n">
-        <v>249.7639075344423</v>
+        <v>202.4685593746278</v>
       </c>
       <c r="I11" t="n">
-        <v>65.87543334372785</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>93.77010711362797</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T11" t="n">
         <v>150.1872840214455</v>
@@ -1427,13 +1427,13 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>185.4876365933223</v>
+        <v>267.6074288087848</v>
       </c>
       <c r="W11" t="n">
-        <v>296.2107322866634</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X11" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y11" t="n">
         <v>321.4474895938729</v>
@@ -1525,28 +1525,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>40.53065239224286</v>
+        <v>112.2776261096563</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>82.92491162465754</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G13" t="n">
-        <v>95.49320096681694</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H13" t="n">
-        <v>82.84545313338899</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>60.68516871456092</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,22 +1573,22 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>51.58366707901683</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>129.7096105845442</v>
+        <v>23.84257165504761</v>
       </c>
       <c r="T13" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V13" t="n">
-        <v>192.241239332652</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>209.4187856534022</v>
       </c>
       <c r="X13" t="n">
         <v>160.6612066001148</v>
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>325.4114858595509</v>
+        <v>325.411485859551</v>
       </c>
       <c r="C14" t="n">
         <v>318.1654340873667</v>
       </c>
       <c r="D14" t="n">
-        <v>31.97405019618611</v>
+        <v>310.508405100767</v>
       </c>
       <c r="E14" t="n">
         <v>327.4793772398889</v>
       </c>
       <c r="F14" t="n">
-        <v>341.64718169059</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G14" t="n">
-        <v>337.9528155621448</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>249.7639075344422</v>
+        <v>249.7639075344423</v>
       </c>
       <c r="I14" t="n">
-        <v>65.87543334372782</v>
+        <v>65.87543334372786</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>93.77010711362794</v>
+        <v>93.77010711362799</v>
       </c>
       <c r="T14" t="n">
-        <v>150.1872840214455</v>
+        <v>102.4796252396922</v>
       </c>
       <c r="U14" t="n">
-        <v>182.1168898750154</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>267.6074288087848</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>296.2107322866635</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>314.4797666215418</v>
       </c>
       <c r="Y14" t="n">
-        <v>321.4474895938729</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>112.2776261096563</v>
+        <v>67.45070582012454</v>
       </c>
       <c r="C16" t="n">
-        <v>97.42475435993867</v>
+        <v>97.42475435993872</v>
       </c>
       <c r="D16" t="n">
-        <v>82.9984695717784</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>82.92491162465755</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>84.67436304442482</v>
       </c>
       <c r="G16" t="n">
-        <v>52.60099046954362</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,25 +1810,25 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>51.58366707901681</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S16" t="n">
-        <v>129.7096105845441</v>
+        <v>129.7096105845442</v>
       </c>
       <c r="T16" t="n">
-        <v>162.2835489187162</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>211.5060914457861</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>192.2412393326521</v>
       </c>
       <c r="W16" t="n">
         <v>209.4187856534022</v>
       </c>
       <c r="X16" t="n">
-        <v>160.6612066001147</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>149.8026281767911</v>
@@ -1853,16 +1853,16 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F17" t="n">
-        <v>282.3655247697376</v>
+        <v>282.3655247697372</v>
       </c>
       <c r="G17" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H17" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I17" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,10 +1892,10 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T17" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U17" t="n">
         <v>122.835232954163</v>
@@ -1904,10 +1904,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W17" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X17" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y17" t="n">
         <v>262.1658326730205</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C19" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D19" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E19" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F19" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G19" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H19" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I19" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2050,25 +2050,25 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T19" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U19" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V19" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W19" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X19" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y19" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="20">
@@ -2093,13 +2093,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G20" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H20" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I20" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,10 +2129,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T20" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U20" t="n">
         <v>122.835232954163</v>
@@ -2141,13 +2141,13 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W20" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X20" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y20" t="n">
-        <v>262.1658326730196</v>
+        <v>262.1658326730205</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C22" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D22" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E22" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F22" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G22" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H22" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I22" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2287,25 +2287,25 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T22" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U22" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V22" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W22" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X22" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y22" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="23">
@@ -2330,13 +2330,13 @@
         <v>282.3655247697376</v>
       </c>
       <c r="G23" t="n">
-        <v>278.6711586412925</v>
+        <v>278.6711586412924</v>
       </c>
       <c r="H23" t="n">
         <v>190.4822506135899</v>
       </c>
       <c r="I23" t="n">
-        <v>6.593776422875465</v>
+        <v>6.593776422875436</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>34.48845019277559</v>
+        <v>34.48845019277556</v>
       </c>
       <c r="T23" t="n">
-        <v>90.90562710059314</v>
+        <v>90.90562710059311</v>
       </c>
       <c r="U23" t="n">
         <v>122.835232954163</v>
@@ -2378,10 +2378,10 @@
         <v>208.3257718879324</v>
       </c>
       <c r="W23" t="n">
-        <v>236.9290753658111</v>
+        <v>236.929075365811</v>
       </c>
       <c r="X23" t="n">
-        <v>255.1981097006894</v>
+        <v>255.1981097006893</v>
       </c>
       <c r="Y23" t="n">
         <v>262.1658326730205</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>52.99596918880391</v>
+        <v>52.99596918880388</v>
       </c>
       <c r="C25" t="n">
-        <v>38.14309743908632</v>
+        <v>38.14309743908629</v>
       </c>
       <c r="D25" t="n">
-        <v>23.71681265092604</v>
+        <v>23.71681265092602</v>
       </c>
       <c r="E25" t="n">
-        <v>23.64325470380516</v>
+        <v>23.64325470380513</v>
       </c>
       <c r="F25" t="n">
-        <v>25.39270612357242</v>
+        <v>25.3927061235724</v>
       </c>
       <c r="G25" t="n">
-        <v>36.21154404596456</v>
+        <v>36.21154404596453</v>
       </c>
       <c r="H25" t="n">
-        <v>23.5637962125366</v>
+        <v>23.56379621253657</v>
       </c>
       <c r="I25" t="n">
-        <v>1.403511793708532</v>
+        <v>1.403511793708503</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,25 +2524,25 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>70.42795366369177</v>
+        <v>70.42795366369174</v>
       </c>
       <c r="T25" t="n">
-        <v>103.0018919978639</v>
+        <v>103.0018919978638</v>
       </c>
       <c r="U25" t="n">
         <v>152.2244345249337</v>
       </c>
       <c r="V25" t="n">
-        <v>132.9595824117997</v>
+        <v>132.9595824117996</v>
       </c>
       <c r="W25" t="n">
         <v>150.1371287325498</v>
       </c>
       <c r="X25" t="n">
-        <v>101.3795496792624</v>
+        <v>101.3795496792623</v>
       </c>
       <c r="Y25" t="n">
-        <v>90.52097125593872</v>
+        <v>90.52097125593869</v>
       </c>
     </row>
     <row r="26">
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>302.4985237799664</v>
+        <v>302.4985237799665</v>
       </c>
       <c r="C26" t="n">
         <v>295.2524720077822</v>
@@ -2561,7 +2561,7 @@
         <v>287.5954430211825</v>
       </c>
       <c r="E26" t="n">
-        <v>304.5664151603044</v>
+        <v>304.5664151603045</v>
       </c>
       <c r="F26" t="n">
         <v>318.7342196110055</v>
@@ -2573,7 +2573,7 @@
         <v>226.8509454548578</v>
       </c>
       <c r="I26" t="n">
-        <v>42.96247126414333</v>
+        <v>42.96247126414337</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>70.85714503404346</v>
+        <v>70.8571450340435</v>
       </c>
       <c r="T26" t="n">
         <v>127.274321941861</v>
@@ -2615,13 +2615,13 @@
         <v>244.6944667292003</v>
       </c>
       <c r="W26" t="n">
-        <v>273.2977702070789</v>
+        <v>273.297770207079</v>
       </c>
       <c r="X26" t="n">
         <v>291.5668045419573</v>
       </c>
       <c r="Y26" t="n">
-        <v>298.5345275142884</v>
+        <v>298.5345275142885</v>
       </c>
     </row>
     <row r="27">
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>89.36466403007178</v>
+        <v>89.36466403007182</v>
       </c>
       <c r="C28" t="n">
-        <v>74.51179228035419</v>
+        <v>74.51179228035423</v>
       </c>
       <c r="D28" t="n">
-        <v>60.08550749219391</v>
+        <v>60.08550749219395</v>
       </c>
       <c r="E28" t="n">
-        <v>60.01194954507302</v>
+        <v>60.01194954507307</v>
       </c>
       <c r="F28" t="n">
-        <v>61.76140096484029</v>
+        <v>61.76140096484033</v>
       </c>
       <c r="G28" t="n">
-        <v>72.58023888723243</v>
+        <v>72.58023888723247</v>
       </c>
       <c r="H28" t="n">
-        <v>59.93249105380447</v>
+        <v>59.93249105380451</v>
       </c>
       <c r="I28" t="n">
-        <v>37.7722066349764</v>
+        <v>37.77220663497644</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,25 +2758,25 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>28.67070499943232</v>
+        <v>28.67070499943236</v>
       </c>
       <c r="S28" t="n">
-        <v>106.7966485049596</v>
+        <v>106.7966485049597</v>
       </c>
       <c r="T28" t="n">
-        <v>139.3705868391317</v>
+        <v>139.3705868391318</v>
       </c>
       <c r="U28" t="n">
         <v>188.5931293662016</v>
       </c>
       <c r="V28" t="n">
-        <v>169.3282772530675</v>
+        <v>169.3282772530676</v>
       </c>
       <c r="W28" t="n">
         <v>186.5058235738177</v>
       </c>
       <c r="X28" t="n">
-        <v>137.7482445205302</v>
+        <v>137.7482445205303</v>
       </c>
       <c r="Y28" t="n">
         <v>126.8896660972066</v>
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>290.1533409542119</v>
+        <v>283.7098784815728</v>
       </c>
       <c r="C32" t="n">
-        <v>282.9072891820277</v>
+        <v>276.4638267093886</v>
       </c>
       <c r="D32" t="n">
-        <v>275.2502601954279</v>
+        <v>268.8067977227889</v>
       </c>
       <c r="E32" t="n">
-        <v>292.2212323345499</v>
+        <v>285.7777698619108</v>
       </c>
       <c r="F32" t="n">
-        <v>306.389036785251</v>
+        <v>299.9455743126119</v>
       </c>
       <c r="G32" t="n">
-        <v>302.6946706568058</v>
+        <v>296.2512081841668</v>
       </c>
       <c r="H32" t="n">
-        <v>214.5057626291032</v>
+        <v>208.0623001564642</v>
       </c>
       <c r="I32" t="n">
-        <v>30.61728843838883</v>
+        <v>24.17382596574977</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>58.51196220828895</v>
+        <v>52.06849973564989</v>
       </c>
       <c r="T32" t="n">
-        <v>114.9291391161065</v>
+        <v>108.4856766434674</v>
       </c>
       <c r="U32" t="n">
-        <v>146.8587449696764</v>
+        <v>140.4152824970373</v>
       </c>
       <c r="V32" t="n">
-        <v>232.3492839034458</v>
+        <v>225.9058214308067</v>
       </c>
       <c r="W32" t="n">
-        <v>260.9525873813244</v>
+        <v>254.5091249086854</v>
       </c>
       <c r="X32" t="n">
-        <v>279.2216217162027</v>
+        <v>272.7781592435637</v>
       </c>
       <c r="Y32" t="n">
-        <v>286.1893446885339</v>
+        <v>279.7458822158948</v>
       </c>
     </row>
     <row r="33">
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>77.01948120431727</v>
+        <v>70.57601873167822</v>
       </c>
       <c r="C34" t="n">
-        <v>62.16660945459968</v>
+        <v>55.72314698196062</v>
       </c>
       <c r="D34" t="n">
-        <v>47.74032466643941</v>
+        <v>41.29686219380035</v>
       </c>
       <c r="E34" t="n">
-        <v>47.66676671931852</v>
+        <v>41.22330424667946</v>
       </c>
       <c r="F34" t="n">
-        <v>49.41621813908579</v>
+        <v>42.97275566644673</v>
       </c>
       <c r="G34" t="n">
-        <v>60.23505606147792</v>
+        <v>53.79159358883886</v>
       </c>
       <c r="H34" t="n">
-        <v>47.58730822804996</v>
+        <v>41.14384575541091</v>
       </c>
       <c r="I34" t="n">
-        <v>25.42702380922189</v>
+        <v>18.98356133658284</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>16.32552217367781</v>
+        <v>9.882059701038756</v>
       </c>
       <c r="S34" t="n">
-        <v>94.45146567920513</v>
+        <v>88.00800320656607</v>
       </c>
       <c r="T34" t="n">
-        <v>127.0254040133772</v>
+        <v>120.5819415407382</v>
       </c>
       <c r="U34" t="n">
-        <v>176.2479465404471</v>
+        <v>169.804484067808</v>
       </c>
       <c r="V34" t="n">
-        <v>156.983094427313</v>
+        <v>150.539631954674</v>
       </c>
       <c r="W34" t="n">
-        <v>174.1606407480631</v>
+        <v>167.7171782754241</v>
       </c>
       <c r="X34" t="n">
-        <v>125.4030616947757</v>
+        <v>118.9595992221367</v>
       </c>
       <c r="Y34" t="n">
-        <v>114.5444832714521</v>
+        <v>108.101020798813</v>
       </c>
     </row>
     <row r="35">
@@ -3560,7 +3560,7 @@
         <v>122.835232954163</v>
       </c>
       <c r="V38" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W38" t="n">
         <v>236.929075365811</v>
@@ -3740,7 +3740,7 @@
         <v>266.1298289386986</v>
       </c>
       <c r="C41" t="n">
-        <v>258.8837771665144</v>
+        <v>258.8837771665143</v>
       </c>
       <c r="D41" t="n">
         <v>251.2267481799146</v>
@@ -3749,7 +3749,7 @@
         <v>268.1977203190365</v>
       </c>
       <c r="F41" t="n">
-        <v>282.3655247697377</v>
+        <v>282.3655247697376</v>
       </c>
       <c r="G41" t="n">
         <v>278.6711586412925</v>
@@ -3758,7 +3758,7 @@
         <v>190.4822506135899</v>
       </c>
       <c r="I41" t="n">
-        <v>6.593776422875493</v>
+        <v>6.593776422875465</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3788,16 +3788,16 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>34.48845019277562</v>
+        <v>34.48845019277559</v>
       </c>
       <c r="T41" t="n">
-        <v>90.90562710059316</v>
+        <v>90.90562710059314</v>
       </c>
       <c r="U41" t="n">
         <v>122.835232954163</v>
       </c>
       <c r="V41" t="n">
-        <v>208.3257718879325</v>
+        <v>208.3257718879324</v>
       </c>
       <c r="W41" t="n">
         <v>236.9290753658111</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>52.99596918880394</v>
+        <v>52.99596918880391</v>
       </c>
       <c r="C43" t="n">
-        <v>38.14309743908635</v>
+        <v>38.14309743908632</v>
       </c>
       <c r="D43" t="n">
-        <v>23.71681265092607</v>
+        <v>23.71681265092604</v>
       </c>
       <c r="E43" t="n">
-        <v>23.64325470380518</v>
+        <v>23.64325470380516</v>
       </c>
       <c r="F43" t="n">
-        <v>25.39270612357245</v>
+        <v>25.39270612357242</v>
       </c>
       <c r="G43" t="n">
-        <v>36.21154404596459</v>
+        <v>36.21154404596456</v>
       </c>
       <c r="H43" t="n">
-        <v>23.56379621253663</v>
+        <v>23.5637962125366</v>
       </c>
       <c r="I43" t="n">
-        <v>1.40351179370856</v>
+        <v>1.403511793708532</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3946,7 +3946,7 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>70.4279536636918</v>
+        <v>70.42795366369177</v>
       </c>
       <c r="T43" t="n">
         <v>103.0018919978639</v>
@@ -3964,7 +3964,7 @@
         <v>101.3795496792624</v>
       </c>
       <c r="Y43" t="n">
-        <v>90.52097125593875</v>
+        <v>90.52097125593872</v>
       </c>
     </row>
     <row r="44">
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>991.8338158702888</v>
+        <v>851.504286324337</v>
       </c>
       <c r="C2" t="n">
-        <v>991.8338158702888</v>
+        <v>851.504286324337</v>
       </c>
       <c r="D2" t="n">
-        <v>606.3926870869566</v>
+        <v>466.0631575410048</v>
       </c>
       <c r="E2" t="n">
-        <v>203.8091622035011</v>
+        <v>63.47963265754937</v>
       </c>
       <c r="F2" t="n">
-        <v>190.9551277738829</v>
+        <v>50.62559822793119</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="H2" t="n">
-        <v>181.8327763022901</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="I2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K2" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L2" t="n">
-        <v>135.6402479253942</v>
+        <v>74.8843274327462</v>
       </c>
       <c r="M2" t="n">
-        <v>673.8990329354866</v>
+        <v>588.487006042434</v>
       </c>
       <c r="N2" t="n">
-        <v>1201.710316572949</v>
+        <v>1102.089684652122</v>
       </c>
       <c r="O2" t="n">
-        <v>1641.749917465277</v>
+        <v>1542.12928554445</v>
       </c>
       <c r="P2" t="n">
-        <v>1989.937409596799</v>
+        <v>1890.316777675972</v>
       </c>
       <c r="Q2" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R2" t="n">
-        <v>2136.790056023269</v>
+        <v>2037.169424102442</v>
       </c>
       <c r="S2" t="n">
-        <v>1970.27650096432</v>
+        <v>1870.655869043493</v>
       </c>
       <c r="T2" t="n">
-        <v>1970.27650096432</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="U2" t="n">
-        <v>1970.27650096432</v>
+        <v>1647.15526660291</v>
       </c>
       <c r="V2" t="n">
-        <v>1788.819270661085</v>
+        <v>1305.048457306428</v>
       </c>
       <c r="W2" t="n">
-        <v>1788.819270661085</v>
+        <v>1305.048457306428</v>
       </c>
       <c r="X2" t="n">
-        <v>1788.819270661085</v>
+        <v>915.595852239485</v>
       </c>
       <c r="Y2" t="n">
-        <v>1392.328561581686</v>
+        <v>851.504286324337</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>842.8616425347859</v>
+        <v>616.125322607858</v>
       </c>
       <c r="C3" t="n">
-        <v>692.2074120948781</v>
+        <v>465.4710921679502</v>
       </c>
       <c r="D3" t="n">
-        <v>562.1184447163585</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="E3" t="n">
-        <v>425.6719538272462</v>
+        <v>335.3821247894306</v>
       </c>
       <c r="F3" t="n">
-        <v>301.240147710378</v>
+        <v>210.9503186725624</v>
       </c>
       <c r="G3" t="n">
-        <v>181.1803297822424</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="H3" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I3" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J3" t="n">
-        <v>43.49565939475495</v>
+        <v>154.6182289760658</v>
       </c>
       <c r="K3" t="n">
-        <v>43.49565939475495</v>
+        <v>474.3573750382922</v>
       </c>
       <c r="L3" t="n">
-        <v>527.0617452930682</v>
+        <v>957.9234609366055</v>
       </c>
       <c r="M3" t="n">
-        <v>1065.32053030316</v>
+        <v>1471.526139546293</v>
       </c>
       <c r="N3" t="n">
-        <v>1603.579315313253</v>
+        <v>1985.128818155981</v>
       </c>
       <c r="O3" t="n">
-        <v>1603.579315313253</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="P3" t="n">
-        <v>2009.20068402965</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="Q3" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R3" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S3" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T3" t="n">
-        <v>1838.951437734589</v>
+        <v>1739.330805813762</v>
       </c>
       <c r="U3" t="n">
-        <v>1628.888294413231</v>
+        <v>1529.267662492404</v>
       </c>
       <c r="V3" t="n">
-        <v>1406.348292784298</v>
+        <v>1306.727660863471</v>
       </c>
       <c r="W3" t="n">
-        <v>1363.279271550228</v>
+        <v>1076.610414996758</v>
       </c>
       <c r="X3" t="n">
-        <v>1173.97219390024</v>
+        <v>947.2358739733122</v>
       </c>
       <c r="Y3" t="n">
-        <v>994.6579769757473</v>
+        <v>767.9216570488194</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1706.244548977624</v>
+        <v>1683.539564588103</v>
       </c>
       <c r="C4" t="n">
-        <v>1706.244548977624</v>
+        <v>1683.539564588103</v>
       </c>
       <c r="D4" t="n">
-        <v>1594.134577520042</v>
+        <v>1527.906451490618</v>
       </c>
       <c r="E4" t="n">
-        <v>1594.134577520042</v>
+        <v>1372.347639349821</v>
       </c>
       <c r="F4" t="n">
-        <v>1436.808642733015</v>
+        <v>1372.347639349821</v>
       </c>
       <c r="G4" t="n">
-        <v>1436.808642733015</v>
+        <v>1204.093585449266</v>
       </c>
       <c r="H4" t="n">
-        <v>1436.808642733015</v>
+        <v>1204.093585449266</v>
       </c>
       <c r="I4" t="n">
-        <v>1303.714217370093</v>
+        <v>1204.093585449266</v>
       </c>
       <c r="J4" t="n">
-        <v>1273.335947196195</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="K4" t="n">
-        <v>1355.170988306137</v>
+        <v>1255.55035638531</v>
       </c>
       <c r="L4" t="n">
-        <v>1519.298628179936</v>
+        <v>1419.67799625911</v>
       </c>
       <c r="M4" t="n">
-        <v>1705.590206518201</v>
+        <v>1605.969574597374</v>
       </c>
       <c r="N4" t="n">
-        <v>1888.77984054941</v>
+        <v>1789.159208628583</v>
       </c>
       <c r="O4" t="n">
-        <v>2051.484607591118</v>
+        <v>1951.863975670291</v>
       </c>
       <c r="P4" t="n">
-        <v>2171.360773367696</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q4" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R4" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S4" t="n">
-        <v>2174.782969737747</v>
+        <v>1872.34625399947</v>
       </c>
       <c r="T4" t="n">
-        <v>2174.782969737747</v>
+        <v>1872.34625399947</v>
       </c>
       <c r="U4" t="n">
-        <v>2174.782969737747</v>
+        <v>1683.539564588103</v>
       </c>
       <c r="V4" t="n">
-        <v>2174.782969737747</v>
+        <v>1683.539564588103</v>
       </c>
       <c r="W4" t="n">
-        <v>1891.452567668925</v>
+        <v>1683.539564588103</v>
       </c>
       <c r="X4" t="n">
-        <v>1891.452567668925</v>
+        <v>1683.539564588103</v>
       </c>
       <c r="Y4" t="n">
-        <v>1891.452567668925</v>
+        <v>1683.539564588103</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1011.889970284309</v>
+        <v>917.6584362062765</v>
       </c>
       <c r="C5" t="n">
-        <v>1011.889970284309</v>
+        <v>917.6584362062765</v>
       </c>
       <c r="D5" t="n">
-        <v>1011.889970284309</v>
+        <v>917.6584362062765</v>
       </c>
       <c r="E5" t="n">
-        <v>1011.889970284309</v>
+        <v>917.6584362062765</v>
       </c>
       <c r="F5" t="n">
-        <v>594.995531814287</v>
+        <v>513.0457655689758</v>
       </c>
       <c r="G5" t="n">
-        <v>181.8327763022901</v>
+        <v>503.9234140973829</v>
       </c>
       <c r="H5" t="n">
-        <v>181.8327763022901</v>
+        <v>179.8403636638736</v>
       </c>
       <c r="I5" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J5" t="n">
-        <v>188.145432303583</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K5" t="n">
-        <v>365.4243013579062</v>
+        <v>400.4856027838002</v>
       </c>
       <c r="L5" t="n">
-        <v>858.7445930764351</v>
+        <v>893.805894502329</v>
       </c>
       <c r="M5" t="n">
-        <v>858.7445930764351</v>
+        <v>1407.408573112017</v>
       </c>
       <c r="N5" t="n">
-        <v>1386.555876713897</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="O5" t="n">
-        <v>1826.595477606226</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="P5" t="n">
-        <v>2174.782969737747</v>
+        <v>1921.011251721704</v>
       </c>
       <c r="Q5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R5" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S5" t="n">
-        <v>2008.269414678798</v>
+        <v>1908.648782757971</v>
       </c>
       <c r="T5" t="n">
-        <v>1784.768812238215</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="U5" t="n">
-        <v>1784.768812238215</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="V5" t="n">
-        <v>1783.383751027419</v>
+        <v>1685.148180317388</v>
       </c>
       <c r="W5" t="n">
-        <v>1412.384715995706</v>
+        <v>1314.149145285675</v>
       </c>
       <c r="X5" t="n">
-        <v>1412.384715995706</v>
+        <v>1314.149145285675</v>
       </c>
       <c r="Y5" t="n">
-        <v>1412.384715995706</v>
+        <v>917.6584362062765</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>842.8616425347859</v>
+        <v>840.8692298963693</v>
       </c>
       <c r="C6" t="n">
-        <v>692.2074120948781</v>
+        <v>690.2149994564616</v>
       </c>
       <c r="D6" t="n">
-        <v>562.1184447163585</v>
+        <v>560.1260320779419</v>
       </c>
       <c r="E6" t="n">
-        <v>425.6719538272462</v>
+        <v>423.6795411888296</v>
       </c>
       <c r="F6" t="n">
-        <v>301.240147710378</v>
+        <v>299.2477350719614</v>
       </c>
       <c r="G6" t="n">
-        <v>181.1803297822424</v>
+        <v>179.1879171438259</v>
       </c>
       <c r="H6" t="n">
-        <v>92.88291338284336</v>
+        <v>90.89050074442682</v>
       </c>
       <c r="I6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="J6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="K6" t="n">
-        <v>43.49565939475495</v>
+        <v>41.50324675633841</v>
       </c>
       <c r="L6" t="n">
-        <v>527.0617452930682</v>
+        <v>299.9892104329667</v>
       </c>
       <c r="M6" t="n">
-        <v>1065.32053030316</v>
+        <v>813.5918890426545</v>
       </c>
       <c r="N6" t="n">
-        <v>1603.579315313253</v>
+        <v>1327.194567652342</v>
       </c>
       <c r="O6" t="n">
-        <v>2120.099597904234</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="P6" t="n">
-        <v>2174.782969737747</v>
+        <v>1840.79724626203</v>
       </c>
       <c r="Q6" t="n">
-        <v>2174.782969737747</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R6" t="n">
-        <v>2150.865926635812</v>
+        <v>2051.245294714985</v>
       </c>
       <c r="S6" t="n">
-        <v>2015.935249535681</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="T6" t="n">
-        <v>1838.951437734589</v>
+        <v>1916.314617614854</v>
       </c>
       <c r="U6" t="n">
-        <v>1628.888294413231</v>
+        <v>1813.944106407458</v>
       </c>
       <c r="V6" t="n">
-        <v>1406.348292784298</v>
+        <v>1591.404104778525</v>
       </c>
       <c r="W6" t="n">
-        <v>1363.279271550228</v>
+        <v>1361.286858911812</v>
       </c>
       <c r="X6" t="n">
-        <v>1173.97219390024</v>
+        <v>1171.979781261824</v>
       </c>
       <c r="Y6" t="n">
-        <v>994.6579769757473</v>
+        <v>992.6655643373307</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>213.7007773287658</v>
+        <v>1381.403466184164</v>
       </c>
       <c r="C7" t="n">
-        <v>43.49565939475495</v>
+        <v>1329.274127416166</v>
       </c>
       <c r="D7" t="n">
-        <v>43.49565939475495</v>
+        <v>1329.274127416166</v>
       </c>
       <c r="E7" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="F7" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="G7" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="H7" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="I7" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="J7" t="n">
-        <v>43.49565939475495</v>
+        <v>1173.715315275368</v>
       </c>
       <c r="K7" t="n">
-        <v>125.3307005046968</v>
+        <v>1255.55035638531</v>
       </c>
       <c r="L7" t="n">
-        <v>289.4583403784966</v>
+        <v>1419.67799625911</v>
       </c>
       <c r="M7" t="n">
-        <v>475.7499187167606</v>
+        <v>1605.969574597374</v>
       </c>
       <c r="N7" t="n">
-        <v>658.9395527479699</v>
+        <v>1789.159208628583</v>
       </c>
       <c r="O7" t="n">
-        <v>821.6443197896779</v>
+        <v>1951.863975670291</v>
       </c>
       <c r="P7" t="n">
-        <v>941.5204855662564</v>
+        <v>2071.74014144687</v>
       </c>
       <c r="Q7" t="n">
-        <v>944.9426819363074</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="R7" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="S7" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="T7" t="n">
-        <v>821.0416925688844</v>
+        <v>2075.162337816921</v>
       </c>
       <c r="U7" t="n">
-        <v>535.6029008107853</v>
+        <v>1789.723546058822</v>
       </c>
       <c r="V7" t="n">
-        <v>398.908796020067</v>
+        <v>1789.723546058822</v>
       </c>
       <c r="W7" t="n">
-        <v>398.908796020067</v>
+        <v>1789.723546058822</v>
       </c>
       <c r="X7" t="n">
-        <v>398.908796020067</v>
+        <v>1789.723546058822</v>
       </c>
       <c r="Y7" t="n">
-        <v>398.908796020067</v>
+        <v>1566.611484875465</v>
       </c>
     </row>
     <row r="8">
@@ -4778,25 +4778,25 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1811.466307371623</v>
+        <v>776.6950480531166</v>
       </c>
       <c r="C8" t="n">
-        <v>1418.290805874553</v>
+        <v>776.6950480531166</v>
       </c>
       <c r="D8" t="n">
-        <v>1418.290805874553</v>
+        <v>471.8728808862101</v>
       </c>
       <c r="E8" t="n">
-        <v>1015.707280991098</v>
+        <v>69.28935600275456</v>
       </c>
       <c r="F8" t="n">
-        <v>598.8128425210757</v>
+        <v>56.43532157313638</v>
       </c>
       <c r="G8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="H8" t="n">
-        <v>185.6500870090788</v>
+        <v>47.31297010154361</v>
       </c>
       <c r="I8" t="n">
         <v>47.31297010154361</v>
@@ -4805,49 +4805,49 @@
         <v>191.9627430103717</v>
       </c>
       <c r="K8" t="n">
-        <v>265.4829774041385</v>
+        <v>538.1002202902207</v>
       </c>
       <c r="L8" t="n">
-        <v>758.8032691226673</v>
+        <v>1031.420512008749</v>
       </c>
       <c r="M8" t="n">
-        <v>1304.804169167248</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="N8" t="n">
-        <v>1832.61545280471</v>
+        <v>1577.42141205333</v>
       </c>
       <c r="O8" t="n">
-        <v>1832.61545280471</v>
+        <v>2017.461012945658</v>
       </c>
       <c r="P8" t="n">
-        <v>2180.802944936232</v>
+        <v>2365.64850507718</v>
       </c>
       <c r="Q8" t="n">
         <v>2365.64850507718</v>
       </c>
       <c r="R8" t="n">
-        <v>2365.64850507718</v>
+        <v>2327.655591362702</v>
       </c>
       <c r="S8" t="n">
-        <v>2211.96105308302</v>
+        <v>2161.142036303753</v>
       </c>
       <c r="T8" t="n">
-        <v>2211.96105308302</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="U8" t="n">
-        <v>2211.96105308302</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="V8" t="n">
-        <v>2211.96105308302</v>
+        <v>1937.641433863169</v>
       </c>
       <c r="W8" t="n">
-        <v>2211.96105308302</v>
+        <v>1566.642398831457</v>
       </c>
       <c r="X8" t="n">
-        <v>2211.96105308302</v>
+        <v>1177.189793764514</v>
       </c>
       <c r="Y8" t="n">
-        <v>2211.96105308302</v>
+        <v>1177.189793764514</v>
       </c>
     </row>
     <row r="9">
@@ -4881,25 +4881,25 @@
         <v>47.31297010154367</v>
       </c>
       <c r="J9" t="n">
-        <v>47.31297010154367</v>
+        <v>160.4279523212711</v>
       </c>
       <c r="K9" t="n">
-        <v>367.0521161637701</v>
+        <v>480.1670983834975</v>
       </c>
       <c r="L9" t="n">
-        <v>367.0521161637701</v>
+        <v>963.7331842818107</v>
       </c>
       <c r="M9" t="n">
-        <v>952.5501211703722</v>
+        <v>1549.231189288413</v>
       </c>
       <c r="N9" t="n">
-        <v>1443.506853769802</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="O9" t="n">
-        <v>1960.027136360783</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="P9" t="n">
-        <v>2365.64850507718</v>
+        <v>2131.28341352229</v>
       </c>
       <c r="Q9" t="n">
         <v>2365.64850507718</v>
@@ -4936,28 +4936,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>306.3595905514212</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="C10" t="n">
-        <v>180.4073954644657</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="D10" t="n">
-        <v>180.4073954644657</v>
+        <v>847.4030175052487</v>
       </c>
       <c r="E10" t="n">
-        <v>180.4073954644657</v>
+        <v>691.8442053644512</v>
       </c>
       <c r="F10" t="n">
-        <v>180.4073954644657</v>
+        <v>534.5182705774242</v>
       </c>
       <c r="G10" t="n">
-        <v>180.4073954644657</v>
+        <v>366.2642166768698</v>
       </c>
       <c r="H10" t="n">
-        <v>180.4073954644657</v>
+        <v>210.7856656383638</v>
       </c>
       <c r="I10" t="n">
-        <v>47.31297010154361</v>
+        <v>77.69124027544166</v>
       </c>
       <c r="J10" t="n">
         <v>47.31297010154361</v>
@@ -5002,10 +5002,10 @@
         <v>948.7599926430961</v>
       </c>
       <c r="X10" t="n">
-        <v>714.6796704260792</v>
+        <v>948.7599926430961</v>
       </c>
       <c r="Y10" t="n">
-        <v>491.5676092427225</v>
+        <v>948.7599926430961</v>
       </c>
     </row>
     <row r="11">
@@ -5015,22 +5015,22 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1719.577864530541</v>
+        <v>1318.972249543668</v>
       </c>
       <c r="C11" t="n">
-        <v>1398.198638179665</v>
+        <v>1318.972249543668</v>
       </c>
       <c r="D11" t="n">
-        <v>1398.198638179665</v>
+        <v>1005.32739590653</v>
       </c>
       <c r="E11" t="n">
-        <v>1067.411388442404</v>
+        <v>674.5401461692682</v>
       </c>
       <c r="F11" t="n">
-        <v>722.3132251185755</v>
+        <v>674.5401461692682</v>
       </c>
       <c r="G11" t="n">
-        <v>380.9467447527725</v>
+        <v>333.1736658034652</v>
       </c>
       <c r="H11" t="n">
         <v>128.6599694654568</v>
@@ -5075,16 +5075,16 @@
         <v>2859.534777998631</v>
       </c>
       <c r="V11" t="n">
-        <v>2672.173528914467</v>
+        <v>2589.224243848344</v>
       </c>
       <c r="W11" t="n">
-        <v>2372.970769028949</v>
+        <v>2290.021483962825</v>
       </c>
       <c r="X11" t="n">
-        <v>2372.970769028949</v>
+        <v>1972.365154042076</v>
       </c>
       <c r="Y11" t="n">
-        <v>2048.276335095744</v>
+        <v>1647.670720108871</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>175.2341099238429</v>
       </c>
       <c r="K12" t="n">
-        <v>346.0196676966397</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L12" t="n">
-        <v>346.0196676966397</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M12" t="n">
-        <v>973.7913173233209</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="N12" t="n">
-        <v>1629.56928853388</v>
+        <v>1606.310991511064</v>
       </c>
       <c r="O12" t="n">
-        <v>2146.089571124861</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P12" t="n">
         <v>2146.089571124861</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>387.31986956212</v>
+        <v>426.2779458817297</v>
       </c>
       <c r="C13" t="n">
-        <v>387.31986956212</v>
+        <v>327.8691030939128</v>
       </c>
       <c r="D13" t="n">
-        <v>387.31986956212</v>
+        <v>327.8691030939128</v>
       </c>
       <c r="E13" t="n">
-        <v>303.5573325675164</v>
+        <v>244.1065660993092</v>
       </c>
       <c r="F13" t="n">
-        <v>303.5573325675164</v>
+        <v>158.5769064584761</v>
       </c>
       <c r="G13" t="n">
-        <v>207.0995538131559</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="H13" t="n">
-        <v>123.4172779208437</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="I13" t="n">
         <v>62.11912770411553</v>
@@ -5203,10 +5203,10 @@
         <v>254.9154847581892</v>
       </c>
       <c r="L13" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M13" t="n">
-        <v>746.0697615118223</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N13" t="n">
         <v>999.626924813816</v>
@@ -5221,28 +5221,28 @@
         <v>1496.732641814508</v>
       </c>
       <c r="R13" t="n">
-        <v>1444.627927593278</v>
+        <v>1496.732641814508</v>
       </c>
       <c r="S13" t="n">
-        <v>1313.608118922022</v>
+        <v>1472.649236102339</v>
       </c>
       <c r="T13" t="n">
-        <v>1149.68534223645</v>
+        <v>1472.649236102339</v>
       </c>
       <c r="U13" t="n">
-        <v>936.0428256245448</v>
+        <v>1259.006719490433</v>
       </c>
       <c r="V13" t="n">
-        <v>741.8597555915632</v>
+        <v>1064.823649457451</v>
       </c>
       <c r="W13" t="n">
-        <v>741.8597555915632</v>
+        <v>853.2895225348228</v>
       </c>
       <c r="X13" t="n">
-        <v>579.5757085207401</v>
+        <v>691.0054754639998</v>
       </c>
       <c r="Y13" t="n">
-        <v>428.2599224835774</v>
+        <v>539.689689426837</v>
       </c>
     </row>
     <row r="14">
@@ -5252,34 +5252,34 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1751.874884930729</v>
+        <v>1691.856237801876</v>
       </c>
       <c r="C14" t="n">
-        <v>1430.495658579853</v>
+        <v>1370.477011451</v>
       </c>
       <c r="D14" t="n">
-        <v>1398.198638179665</v>
+        <v>1056.832157813862</v>
       </c>
       <c r="E14" t="n">
-        <v>1067.411388442404</v>
+        <v>726.0449080766006</v>
       </c>
       <c r="F14" t="n">
-        <v>722.3132251185752</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="G14" t="n">
-        <v>380.9467447527724</v>
+        <v>380.9467447527722</v>
       </c>
       <c r="H14" t="n">
-        <v>128.659969465457</v>
+        <v>128.6599694654568</v>
       </c>
       <c r="I14" t="n">
-        <v>62.11912770411573</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J14" t="n">
-        <v>206.7689006129438</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K14" t="n">
-        <v>565.7512566404057</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L14" t="n">
         <v>1059.071548358934</v>
@@ -5306,22 +5306,22 @@
         <v>3011.239105293021</v>
       </c>
       <c r="T14" t="n">
-        <v>2859.534777998632</v>
+        <v>2907.724332323634</v>
       </c>
       <c r="U14" t="n">
-        <v>2675.578323579424</v>
+        <v>2907.724332323634</v>
       </c>
       <c r="V14" t="n">
-        <v>2405.267789429136</v>
+        <v>2637.413798173347</v>
       </c>
       <c r="W14" t="n">
-        <v>2405.267789429136</v>
+        <v>2338.211038287828</v>
       </c>
       <c r="X14" t="n">
-        <v>2405.267789429136</v>
+        <v>2020.554708367079</v>
       </c>
       <c r="Y14" t="n">
-        <v>2080.573355495932</v>
+        <v>2020.554708367079</v>
       </c>
     </row>
     <row r="15">
@@ -5355,25 +5355,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J15" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K15" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L15" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M15" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N15" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O15" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P15" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q15" t="n">
         <v>2380.454662679751</v>
@@ -5410,25 +5410,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>297.4971220488237</v>
+        <v>474.8005932364093</v>
       </c>
       <c r="C16" t="n">
-        <v>199.0882792610068</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="D16" t="n">
-        <v>115.2514413097151</v>
+        <v>376.3917504485927</v>
       </c>
       <c r="E16" t="n">
-        <v>115.2514413097151</v>
+        <v>292.6292134539891</v>
       </c>
       <c r="F16" t="n">
-        <v>115.2514413097151</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="G16" t="n">
-        <v>62.11912770411553</v>
+        <v>207.0995538131559</v>
       </c>
       <c r="H16" t="n">
-        <v>62.11912770411553</v>
+        <v>123.4172779208438</v>
       </c>
       <c r="I16" t="n">
         <v>62.11912770411553</v>
@@ -5437,16 +5437,16 @@
         <v>102.7129143774627</v>
       </c>
       <c r="K16" t="n">
-        <v>254.9154847581893</v>
+        <v>254.9154847581892</v>
       </c>
       <c r="L16" t="n">
-        <v>489.4106539027737</v>
+        <v>489.4106539027736</v>
       </c>
       <c r="M16" t="n">
-        <v>746.0697615118224</v>
+        <v>746.0697615118222</v>
       </c>
       <c r="N16" t="n">
-        <v>999.6269248138163</v>
+        <v>999.626924813816</v>
       </c>
       <c r="O16" t="n">
         <v>1232.699221126309</v>
@@ -5455,31 +5455,31 @@
         <v>1422.942916173672</v>
       </c>
       <c r="Q16" t="n">
-        <v>1496.732641814508</v>
+        <v>1496.732641814507</v>
       </c>
       <c r="R16" t="n">
-        <v>1444.627927593279</v>
+        <v>1444.627927593278</v>
       </c>
       <c r="S16" t="n">
         <v>1313.608118922022</v>
       </c>
       <c r="T16" t="n">
-        <v>1149.68534223645</v>
+        <v>1313.608118922022</v>
       </c>
       <c r="U16" t="n">
-        <v>936.0428256245452</v>
+        <v>1099.965602310116</v>
       </c>
       <c r="V16" t="n">
-        <v>936.0428256245452</v>
+        <v>905.7825322771345</v>
       </c>
       <c r="W16" t="n">
-        <v>724.5086987019167</v>
+        <v>694.248405354506</v>
       </c>
       <c r="X16" t="n">
-        <v>562.2246516310937</v>
+        <v>694.248405354506</v>
       </c>
       <c r="Y16" t="n">
-        <v>410.908865593931</v>
+        <v>542.9326193173432</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1614.059487414178</v>
+        <v>1614.059487414177</v>
       </c>
       <c r="C17" t="n">
         <v>1352.560722599516</v>
       </c>
       <c r="D17" t="n">
-        <v>1098.796330498593</v>
+        <v>1098.796330498592</v>
       </c>
       <c r="E17" t="n">
-        <v>827.8895422975455</v>
+        <v>827.8895422975449</v>
       </c>
       <c r="F17" t="n">
-        <v>542.6718405099318</v>
+        <v>542.6718405099315</v>
       </c>
       <c r="G17" t="n">
-        <v>261.1858216803435</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H17" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924223</v>
       </c>
       <c r="I17" t="n">
         <v>62.11912770411553</v>
@@ -5540,7 +5540,7 @@
         <v>3105.956385205776</v>
       </c>
       <c r="S17" t="n">
-        <v>3071.119566829236</v>
+        <v>3071.119566829235</v>
       </c>
       <c r="T17" t="n">
         <v>2979.295701071061</v>
@@ -5555,10 +5555,10 @@
         <v>2405.46733722469</v>
       </c>
       <c r="X17" t="n">
-        <v>2147.691468840157</v>
+        <v>2147.691468840156</v>
       </c>
       <c r="Y17" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="18">
@@ -5592,25 +5592,25 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J18" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K18" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L18" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M18" t="n">
-        <v>1493.196009291336</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N18" t="n">
-        <v>1493.196009291336</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O18" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P18" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q18" t="n">
         <v>2380.454662679751</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C19" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D19" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E19" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F19" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G19" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H19" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462917</v>
       </c>
       <c r="I19" t="n">
         <v>62.11912770411553</v>
@@ -5686,37 +5686,37 @@
         <v>677.5630210573304</v>
       </c>
       <c r="O19" t="n">
-        <v>840.2677880990384</v>
+        <v>969.3241577214669</v>
       </c>
       <c r="P19" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q19" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R19" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S19" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T19" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U19" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V19" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W19" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X19" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y19" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="20">
@@ -5744,7 +5744,7 @@
         <v>261.1858216803432</v>
       </c>
       <c r="H20" t="n">
-        <v>68.77950792924226</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I20" t="n">
         <v>62.11912770411553</v>
@@ -5771,10 +5771,10 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R20" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S20" t="n">
         <v>3071.119566829236</v>
@@ -5786,16 +5786,16 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V20" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W20" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X20" t="n">
-        <v>2147.691468840156</v>
+        <v>2147.691468840155</v>
       </c>
       <c r="Y20" t="n">
-        <v>1882.877496443166</v>
+        <v>1882.877496443165</v>
       </c>
     </row>
     <row r="21">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>235.9319791885596</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C22" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D22" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E22" t="n">
-        <v>149.5651460634914</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F22" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G22" t="n">
-        <v>87.33863074072679</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H22" t="n">
-        <v>63.5368163846292</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I22" t="n">
         <v>62.11912770411553</v>
       </c>
       <c r="J22" t="n">
-        <v>161.4017547291066</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K22" t="n">
-        <v>243.2367958390484</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L22" t="n">
-        <v>407.3644357128482</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M22" t="n">
-        <v>621.3883893133168</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N22" t="n">
-        <v>804.5780233445259</v>
+        <v>677.5630210573304</v>
       </c>
       <c r="O22" t="n">
-        <v>967.282790386234</v>
+        <v>840.2677880990384</v>
       </c>
       <c r="P22" t="n">
-        <v>1087.158956162813</v>
+        <v>1089.200323498045</v>
       </c>
       <c r="Q22" t="n">
-        <v>1090.581152532863</v>
+        <v>1092.622519868096</v>
       </c>
       <c r="R22" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S22" t="n">
         <v>1027.062815341238</v>
       </c>
       <c r="T22" t="n">
-        <v>923.020500191881</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U22" t="n">
-        <v>769.2584451161904</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V22" t="n">
-        <v>634.9558366194231</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W22" t="n">
-        <v>483.3021712330091</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X22" t="n">
-        <v>380.8985856984007</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y22" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="23">
@@ -5978,55 +5978,55 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G23" t="n">
-        <v>261.185821680343</v>
+        <v>261.1858216803431</v>
       </c>
       <c r="H23" t="n">
-        <v>68.77950792924229</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I23" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J23" t="n">
-        <v>206.7689006129437</v>
+        <v>206.7689006129436</v>
       </c>
       <c r="K23" t="n">
-        <v>565.7512566404073</v>
+        <v>565.7512566404055</v>
       </c>
       <c r="L23" t="n">
-        <v>1059.071548358936</v>
+        <v>1059.071548358934</v>
       </c>
       <c r="M23" t="n">
-        <v>1605.072448403517</v>
+        <v>1605.072448403515</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.883732040979</v>
+        <v>2132.883732040977</v>
       </c>
       <c r="O23" t="n">
-        <v>2572.923332933307</v>
+        <v>2572.923332933306</v>
       </c>
       <c r="P23" t="n">
-        <v>2921.110825064829</v>
+        <v>2921.110825064828</v>
       </c>
       <c r="Q23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205776</v>
       </c>
       <c r="R23" t="n">
-        <v>3105.956385205778</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S23" t="n">
-        <v>3071.119566829237</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T23" t="n">
-        <v>2979.295701071062</v>
+        <v>2979.295701071061</v>
       </c>
       <c r="U23" t="n">
         <v>2855.219708188068</v>
       </c>
       <c r="V23" t="n">
-        <v>2644.789635573995</v>
+        <v>2644.789635573994</v>
       </c>
       <c r="W23" t="n">
-        <v>2405.467337224691</v>
+        <v>2405.46733722469</v>
       </c>
       <c r="X23" t="n">
         <v>2147.691468840156</v>
@@ -6060,31 +6060,31 @@
         <v>199.803798091603</v>
       </c>
       <c r="H24" t="n">
-        <v>111.506381692204</v>
+        <v>111.5063816922039</v>
       </c>
       <c r="I24" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J24" t="n">
-        <v>62.11912770411556</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K24" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L24" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N24" t="n">
-        <v>1458.313011372373</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="O24" t="n">
-        <v>1974.833293963354</v>
+        <v>1740.468202408463</v>
       </c>
       <c r="P24" t="n">
-        <v>2380.454662679751</v>
+        <v>2146.089571124861</v>
       </c>
       <c r="Q24" t="n">
         <v>2380.454662679751</v>
@@ -6121,31 +6121,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>235.9319791885597</v>
+        <v>235.9319791885594</v>
       </c>
       <c r="C25" t="n">
-        <v>197.4035979369573</v>
+        <v>197.4035979369571</v>
       </c>
       <c r="D25" t="n">
-        <v>173.4472215218805</v>
+        <v>173.4472215218803</v>
       </c>
       <c r="E25" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634913</v>
       </c>
       <c r="F25" t="n">
-        <v>123.9159479588728</v>
+        <v>123.9159479588727</v>
       </c>
       <c r="G25" t="n">
-        <v>87.33863074072681</v>
+        <v>87.33863074072673</v>
       </c>
       <c r="H25" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="J25" t="n">
-        <v>62.11912770411556</v>
+        <v>62.11912770411553</v>
       </c>
       <c r="K25" t="n">
         <v>143.9541688140574</v>
@@ -6157,40 +6157,40 @@
         <v>494.3733870261212</v>
       </c>
       <c r="N25" t="n">
-        <v>677.5630210573304</v>
+        <v>683.1426636655142</v>
       </c>
       <c r="O25" t="n">
-        <v>840.2677880990384</v>
+        <v>845.8474307072222</v>
       </c>
       <c r="P25" t="n">
-        <v>960.1439538756169</v>
+        <v>1094.779966106229</v>
       </c>
       <c r="Q25" t="n">
-        <v>1092.622519868096</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="R25" t="n">
-        <v>1098.202162476281</v>
+        <v>1098.20216247628</v>
       </c>
       <c r="S25" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T25" t="n">
-        <v>923.0205001918812</v>
+        <v>923.0205001918806</v>
       </c>
       <c r="U25" t="n">
-        <v>769.2584451161905</v>
+        <v>769.25844511619</v>
       </c>
       <c r="V25" t="n">
-        <v>634.9558366194232</v>
+        <v>634.9558366194227</v>
       </c>
       <c r="W25" t="n">
-        <v>483.3021712330092</v>
+        <v>483.3021712330088</v>
       </c>
       <c r="X25" t="n">
-        <v>380.8985856984008</v>
+        <v>380.8985856984004</v>
       </c>
       <c r="Y25" t="n">
-        <v>289.4632611974525</v>
+        <v>289.4632611974523</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1882.457606424152</v>
+        <v>1882.457606424153</v>
       </c>
       <c r="C26" t="n">
-        <v>1584.222786214271</v>
+        <v>1584.222786214272</v>
       </c>
       <c r="D26" t="n">
         <v>1293.722338718128</v>
@@ -6218,19 +6218,19 @@
         <v>345.9036637142181</v>
       </c>
       <c r="H26" t="n">
-        <v>116.761294567897</v>
+        <v>116.7612945678971</v>
       </c>
       <c r="I26" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J26" t="n">
-        <v>311.0659935859517</v>
+        <v>218.0146318563784</v>
       </c>
       <c r="K26" t="n">
-        <v>763.0997113429868</v>
+        <v>670.0483496134135</v>
       </c>
       <c r="L26" t="n">
-        <v>1349.471364791089</v>
+        <v>1256.420003061516</v>
       </c>
       <c r="M26" t="n">
         <v>1895.47226483567</v>
@@ -6239,34 +6239,34 @@
         <v>2516.334910202705</v>
       </c>
       <c r="O26" t="n">
-        <v>2956.374511095034</v>
+        <v>3049.425872824607</v>
       </c>
       <c r="P26" t="n">
-        <v>3390.34602550699</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R26" t="n">
-        <v>3668.242947377512</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="S26" t="n">
-        <v>3596.670073605751</v>
+        <v>3596.670073605753</v>
       </c>
       <c r="T26" t="n">
-        <v>3468.110152452356</v>
+        <v>3468.110152452358</v>
       </c>
       <c r="U26" t="n">
-        <v>3307.298104174143</v>
+        <v>3307.298104174145</v>
       </c>
       <c r="V26" t="n">
-        <v>3060.13197616485</v>
+        <v>3060.131976164852</v>
       </c>
       <c r="W26" t="n">
-        <v>2784.073622420326</v>
+        <v>2784.073622420327</v>
       </c>
       <c r="X26" t="n">
-        <v>2489.561698640571</v>
+        <v>2489.561698640572</v>
       </c>
       <c r="Y26" t="n">
         <v>2188.011670848361</v>
@@ -6297,10 +6297,10 @@
         <v>211.0495293350377</v>
       </c>
       <c r="H27" t="n">
-        <v>122.7521129356386</v>
+        <v>122.7521129356387</v>
       </c>
       <c r="I27" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J27" t="n">
         <v>186.4798411672776</v>
@@ -6309,16 +6309,16 @@
         <v>506.2189872295041</v>
       </c>
       <c r="L27" t="n">
-        <v>506.2189872295041</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M27" t="n">
-        <v>1133.990636856185</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="N27" t="n">
-        <v>1789.768608066744</v>
+        <v>1617.556722754498</v>
       </c>
       <c r="O27" t="n">
-        <v>2306.288890657725</v>
+        <v>2134.077005345479</v>
       </c>
       <c r="P27" t="n">
         <v>2391.700393923186</v>
@@ -6361,37 +6361,37 @@
         <v>504.3300981985351</v>
       </c>
       <c r="C28" t="n">
-        <v>429.065661551713</v>
+        <v>429.0656615517127</v>
       </c>
       <c r="D28" t="n">
-        <v>368.3732297414161</v>
+        <v>368.3732297414157</v>
       </c>
       <c r="E28" t="n">
         <v>307.7550988878066</v>
       </c>
       <c r="F28" t="n">
-        <v>245.369845387968</v>
+        <v>245.3698453879679</v>
       </c>
       <c r="G28" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H28" t="n">
-        <v>111.5186030232841</v>
+        <v>111.518603023284</v>
       </c>
       <c r="I28" t="n">
-        <v>73.36485894755025</v>
+        <v>73.36485894755026</v>
       </c>
       <c r="J28" t="n">
-        <v>136.6424780796862</v>
+        <v>136.642478079686</v>
       </c>
       <c r="K28" t="n">
         <v>311.5288809192012</v>
       </c>
       <c r="L28" t="n">
-        <v>568.7078825225741</v>
+        <v>568.7078825225742</v>
       </c>
       <c r="M28" t="n">
-        <v>848.0508225904113</v>
+        <v>848.0508225904116</v>
       </c>
       <c r="N28" t="n">
         <v>1124.291818351194</v>
@@ -6437,22 +6437,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1882.457606424153</v>
+        <v>1882.457606424152</v>
       </c>
       <c r="C29" t="n">
-        <v>1584.222786214272</v>
+        <v>1584.222786214271</v>
       </c>
       <c r="D29" t="n">
-        <v>1293.722338718128</v>
+        <v>1293.722338718127</v>
       </c>
       <c r="E29" t="n">
-        <v>986.0794951218604</v>
+        <v>986.0794951218602</v>
       </c>
       <c r="F29" t="n">
-        <v>664.1257379390265</v>
+        <v>664.1257379390263</v>
       </c>
       <c r="G29" t="n">
-        <v>345.9036637142181</v>
+        <v>345.9036637142178</v>
       </c>
       <c r="H29" t="n">
         <v>116.7612945678971</v>
@@ -6464,25 +6464,25 @@
         <v>311.0659935859517</v>
       </c>
       <c r="K29" t="n">
-        <v>670.0483496134135</v>
+        <v>763.0997113429868</v>
       </c>
       <c r="L29" t="n">
-        <v>1193.338156614364</v>
+        <v>1349.471364791089</v>
       </c>
       <c r="M29" t="n">
-        <v>1832.390418388518</v>
+        <v>1895.47226483567</v>
       </c>
       <c r="N29" t="n">
-        <v>2453.253063755554</v>
+        <v>2423.283548473132</v>
       </c>
       <c r="O29" t="n">
-        <v>2986.344026377456</v>
+        <v>2956.374511095034</v>
       </c>
       <c r="P29" t="n">
-        <v>3427.582880238551</v>
+        <v>3397.613364956129</v>
       </c>
       <c r="Q29" t="n">
-        <v>3612.4284403795</v>
+        <v>3668.242947377513</v>
       </c>
       <c r="R29" t="n">
         <v>3668.242947377513</v>
@@ -6491,22 +6491,22 @@
         <v>3596.670073605752</v>
       </c>
       <c r="T29" t="n">
-        <v>3468.110152452357</v>
+        <v>3468.110152452356</v>
       </c>
       <c r="U29" t="n">
-        <v>3307.298104174144</v>
+        <v>3307.298104174143</v>
       </c>
       <c r="V29" t="n">
-        <v>3060.131976164851</v>
+        <v>3060.13197616485</v>
       </c>
       <c r="W29" t="n">
-        <v>2784.073622420327</v>
+        <v>2784.073622420326</v>
       </c>
       <c r="X29" t="n">
-        <v>2489.561698640572</v>
+        <v>2489.561698640571</v>
       </c>
       <c r="Y29" t="n">
-        <v>2188.011670848361</v>
+        <v>2188.01167084836</v>
       </c>
     </row>
     <row r="30">
@@ -6540,25 +6540,25 @@
         <v>73.36485894755026</v>
       </c>
       <c r="J30" t="n">
-        <v>73.36485894755026</v>
+        <v>186.4798411672776</v>
       </c>
       <c r="K30" t="n">
-        <v>393.1040050097767</v>
+        <v>506.2189872295041</v>
       </c>
       <c r="L30" t="n">
-        <v>876.6700909080899</v>
+        <v>989.7850731278173</v>
       </c>
       <c r="M30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="N30" t="n">
-        <v>1469.558742615807</v>
+        <v>1235.193651060917</v>
       </c>
       <c r="O30" t="n">
-        <v>1986.079025206788</v>
+        <v>1751.713933651898</v>
       </c>
       <c r="P30" t="n">
-        <v>2391.700393923186</v>
+        <v>2157.335302368295</v>
       </c>
       <c r="Q30" t="n">
         <v>2391.700393923186</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>504.3300981985352</v>
+        <v>504.330098198535</v>
       </c>
       <c r="C31" t="n">
-        <v>429.0656615517128</v>
+        <v>429.0656615517126</v>
       </c>
       <c r="D31" t="n">
         <v>368.3732297414156</v>
       </c>
       <c r="E31" t="n">
-        <v>307.7550988878068</v>
+        <v>307.7550988878065</v>
       </c>
       <c r="F31" t="n">
-        <v>245.3698453879681</v>
+        <v>245.3698453879678</v>
       </c>
       <c r="G31" t="n">
-        <v>172.056472774602</v>
+        <v>172.0564727746017</v>
       </c>
       <c r="H31" t="n">
-        <v>111.5186030232843</v>
+        <v>111.5186030232841</v>
       </c>
       <c r="I31" t="n">
         <v>73.36485894755026</v>
@@ -6628,10 +6628,10 @@
         <v>568.7078825225741</v>
       </c>
       <c r="M31" t="n">
-        <v>848.0508225904115</v>
+        <v>848.0508225904113</v>
       </c>
       <c r="N31" t="n">
-        <v>1124.291818351194</v>
+        <v>1124.291818351193</v>
       </c>
       <c r="O31" t="n">
         <v>1380.047947122475</v>
@@ -6643,28 +6643,28 @@
         <v>1689.449032728251</v>
       </c>
       <c r="R31" t="n">
-        <v>1660.488724648017</v>
+        <v>1660.488724648016</v>
       </c>
       <c r="S31" t="n">
         <v>1552.613322117754</v>
       </c>
       <c r="T31" t="n">
-        <v>1411.834951573177</v>
+        <v>1411.834951573176</v>
       </c>
       <c r="U31" t="n">
         <v>1221.336841102266</v>
       </c>
       <c r="V31" t="n">
-        <v>1050.298177210279</v>
+        <v>1050.298177210278</v>
       </c>
       <c r="W31" t="n">
-        <v>861.908456428645</v>
+        <v>861.9084564286443</v>
       </c>
       <c r="X31" t="n">
-        <v>722.7688154988165</v>
+        <v>722.7688154988158</v>
       </c>
       <c r="Y31" t="n">
-        <v>594.5974356026481</v>
+        <v>594.5974356026475</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1791.35112422213</v>
+        <v>1743.798875918588</v>
       </c>
       <c r="C32" t="n">
-        <v>1505.586185654425</v>
+        <v>1464.542485303044</v>
       </c>
       <c r="D32" t="n">
-        <v>1227.555619800457</v>
+        <v>1193.020467401237</v>
       </c>
       <c r="E32" t="n">
-        <v>932.3826578463663</v>
+        <v>904.356053399307</v>
       </c>
       <c r="F32" t="n">
-        <v>622.8987823057087</v>
+        <v>601.3807258108101</v>
       </c>
       <c r="G32" t="n">
-        <v>317.1465897230764</v>
+        <v>302.1370811803386</v>
       </c>
       <c r="H32" t="n">
-        <v>100.4741022189321</v>
+        <v>91.97314162835494</v>
       </c>
       <c r="I32" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J32" t="n">
-        <v>214.1973211495897</v>
+        <v>212.2049085111732</v>
       </c>
       <c r="K32" t="n">
-        <v>573.1796771770515</v>
+        <v>571.187264538635</v>
       </c>
       <c r="L32" t="n">
-        <v>1066.49996889558</v>
+        <v>1064.507556257164</v>
       </c>
       <c r="M32" t="n">
-        <v>1717.773961667231</v>
+        <v>1722.160576876727</v>
       </c>
       <c r="N32" t="n">
-        <v>2350.858338031763</v>
+        <v>2293.032006377472</v>
       </c>
       <c r="O32" t="n">
-        <v>2876.308121770099</v>
+        <v>2733.0716072698</v>
       </c>
       <c r="P32" t="n">
-        <v>3224.495613901621</v>
+        <v>3192.911219976305</v>
       </c>
       <c r="Q32" t="n">
-        <v>3409.341174042569</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="R32" t="n">
-        <v>3477.37741203808</v>
+        <v>3377.756780117254</v>
       </c>
       <c r="S32" t="n">
-        <v>3418.274419908495</v>
+        <v>3325.16233593983</v>
       </c>
       <c r="T32" t="n">
-        <v>3302.184380397277</v>
+        <v>3215.580844380772</v>
       </c>
       <c r="U32" t="n">
-        <v>3153.84221376124</v>
+        <v>3073.747225696895</v>
       </c>
       <c r="V32" t="n">
-        <v>2919.145967394123</v>
+        <v>2845.559527281939</v>
       </c>
       <c r="W32" t="n">
-        <v>2655.557495291775</v>
+        <v>2588.479603131752</v>
       </c>
       <c r="X32" t="n">
-        <v>2373.515453154196</v>
+        <v>2312.946108946334</v>
       </c>
       <c r="Y32" t="n">
-        <v>2084.435307004162</v>
+        <v>2030.37451074846</v>
       </c>
     </row>
     <row r="33">
@@ -6753,76 +6753,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>868.9135313807926</v>
+        <v>866.9211187423761</v>
       </c>
       <c r="C33" t="n">
-        <v>718.2593009408848</v>
+        <v>716.2668883024683</v>
       </c>
       <c r="D33" t="n">
-        <v>588.1703335623652</v>
+        <v>586.1779209239486</v>
       </c>
       <c r="E33" t="n">
-        <v>451.7238426732528</v>
+        <v>449.7314300348363</v>
       </c>
       <c r="F33" t="n">
-        <v>327.2920365563846</v>
+        <v>325.2996239179681</v>
       </c>
       <c r="G33" t="n">
-        <v>207.2322186282491</v>
+        <v>205.2398059898326</v>
       </c>
       <c r="H33" t="n">
-        <v>118.93480222885</v>
+        <v>116.9423895904335</v>
       </c>
       <c r="I33" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J33" t="n">
-        <v>182.1918110717787</v>
+        <v>180.6701178220725</v>
       </c>
       <c r="K33" t="n">
-        <v>182.1918110717787</v>
+        <v>500.4092638842989</v>
       </c>
       <c r="L33" t="n">
-        <v>182.1918110717787</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="M33" t="n">
-        <v>809.9634606984599</v>
+        <v>983.9753497826121</v>
       </c>
       <c r="N33" t="n">
-        <v>1465.741431909019</v>
+        <v>1229.383927715712</v>
       </c>
       <c r="O33" t="n">
-        <v>1982.2617145</v>
+        <v>1745.904210306693</v>
       </c>
       <c r="P33" t="n">
-        <v>2387.883083216398</v>
+        <v>2151.525579023091</v>
       </c>
       <c r="Q33" t="n">
-        <v>2387.883083216398</v>
+        <v>2385.890670577981</v>
       </c>
       <c r="R33" t="n">
-        <v>2363.966040114462</v>
+        <v>2361.973627476046</v>
       </c>
       <c r="S33" t="n">
-        <v>2229.035363014331</v>
+        <v>2227.042950375915</v>
       </c>
       <c r="T33" t="n">
-        <v>2052.051551213239</v>
+        <v>2050.059138574823</v>
       </c>
       <c r="U33" t="n">
-        <v>1841.988407891881</v>
+        <v>1839.995995253465</v>
       </c>
       <c r="V33" t="n">
-        <v>1619.448406262948</v>
+        <v>1617.455993624532</v>
       </c>
       <c r="W33" t="n">
-        <v>1389.331160396235</v>
+        <v>1387.338747757819</v>
       </c>
       <c r="X33" t="n">
-        <v>1200.024082746247</v>
+        <v>1198.03167010783</v>
       </c>
       <c r="Y33" t="n">
-        <v>1020.709865821754</v>
+        <v>1018.717453183337</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>413.2236159965123</v>
+        <v>365.6713676929712</v>
       </c>
       <c r="C34" t="n">
-        <v>350.4290609918662</v>
+        <v>309.3853606404857</v>
       </c>
       <c r="D34" t="n">
-        <v>302.2065108237455</v>
+        <v>267.6713584245257</v>
       </c>
       <c r="E34" t="n">
-        <v>254.0582616123127</v>
+        <v>226.0316571652535</v>
       </c>
       <c r="F34" t="n">
-        <v>204.1428897546503</v>
+        <v>182.6248332597518</v>
       </c>
       <c r="G34" t="n">
-        <v>143.2993987834604</v>
+        <v>128.2898902407226</v>
       </c>
       <c r="H34" t="n">
-        <v>95.23141067431906</v>
+        <v>86.73045008374189</v>
       </c>
       <c r="I34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="J34" t="n">
-        <v>69.5475482407616</v>
+        <v>67.55513560234508</v>
       </c>
       <c r="K34" t="n">
-        <v>256.6556820777737</v>
+        <v>261.0422972872699</v>
       </c>
       <c r="L34" t="n">
-        <v>420.7833219515735</v>
+        <v>425.1699371610697</v>
       </c>
       <c r="M34" t="n">
-        <v>712.3479930169078</v>
+        <v>611.4615154993337</v>
       </c>
       <c r="N34" t="n">
-        <v>1000.810719775187</v>
+        <v>794.6511495305429</v>
       </c>
       <c r="O34" t="n">
-        <v>1268.788579543966</v>
+        <v>1069.008037147234</v>
       </c>
       <c r="P34" t="n">
-        <v>1482.691419376591</v>
+        <v>1264.910118928621</v>
       </c>
       <c r="Q34" t="n">
-        <v>1486.113615746642</v>
+        <v>1379.984435873655</v>
       </c>
       <c r="R34" t="n">
-        <v>1469.623189308584</v>
+        <v>1370.002557387757</v>
       </c>
       <c r="S34" t="n">
-        <v>1374.217668420498</v>
+        <v>1281.105584451832</v>
       </c>
       <c r="T34" t="n">
-        <v>1245.909179518097</v>
+        <v>1159.305643501591</v>
       </c>
       <c r="U34" t="n">
-        <v>1067.880950689362</v>
+        <v>987.7859626250178</v>
       </c>
       <c r="V34" t="n">
-        <v>909.312168439551</v>
+        <v>835.7257283273673</v>
       </c>
       <c r="W34" t="n">
-        <v>733.3923293000933</v>
+        <v>666.3144371400701</v>
       </c>
       <c r="X34" t="n">
-        <v>606.722570012441</v>
+        <v>546.1532258045785</v>
       </c>
       <c r="Y34" t="n">
-        <v>491.021071758449</v>
+        <v>436.9602755027472</v>
       </c>
     </row>
     <row r="35">
@@ -6914,22 +6914,22 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C35" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D35" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E35" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975454</v>
       </c>
       <c r="F35" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099316</v>
       </c>
       <c r="G35" t="n">
-        <v>261.1858216803425</v>
+        <v>261.1858216803432</v>
       </c>
       <c r="H35" t="n">
-        <v>68.77950792924223</v>
+        <v>68.77950792924224</v>
       </c>
       <c r="I35" t="n">
         <v>62.11912770411553</v>
@@ -6944,10 +6944,10 @@
         <v>1059.071548358934</v>
       </c>
       <c r="M35" t="n">
-        <v>1605.072448403515</v>
+        <v>1605.072448403516</v>
       </c>
       <c r="N35" t="n">
-        <v>2132.883732040977</v>
+        <v>2132.883732040978</v>
       </c>
       <c r="O35" t="n">
         <v>2572.923332933306</v>
@@ -6956,13 +6956,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R35" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S35" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T35" t="n">
         <v>2979.295701071061</v>
@@ -6974,7 +6974,7 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W35" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X35" t="n">
         <v>2147.691468840156</v>
@@ -7020,10 +7020,10 @@
         <v>494.9732559860694</v>
       </c>
       <c r="L36" t="n">
-        <v>494.9732559860694</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M36" t="n">
-        <v>568.1699486069232</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N36" t="n">
         <v>1223.947919817482</v>
@@ -7087,7 +7087,7 @@
         <v>87.33863074072673</v>
       </c>
       <c r="H37" t="n">
-        <v>63.53681638462917</v>
+        <v>63.53681638462918</v>
       </c>
       <c r="I37" t="n">
         <v>62.11912770411553</v>
@@ -7096,16 +7096,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K37" t="n">
-        <v>273.0105384364859</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L37" t="n">
-        <v>437.1381783102858</v>
+        <v>313.661451296041</v>
       </c>
       <c r="M37" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N37" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O37" t="n">
         <v>974.9038003296507</v>
@@ -7163,7 +7163,7 @@
         <v>542.6718405099314</v>
       </c>
       <c r="G38" t="n">
-        <v>261.1858216803431</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H38" t="n">
         <v>68.77950792924223</v>
@@ -7211,13 +7211,13 @@
         <v>2644.789635573994</v>
       </c>
       <c r="W38" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X38" t="n">
         <v>2147.691468840156</v>
       </c>
       <c r="Y38" t="n">
-        <v>1882.877496443165</v>
+        <v>1882.877496443166</v>
       </c>
     </row>
     <row r="39">
@@ -7251,16 +7251,16 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J39" t="n">
-        <v>62.11912770411553</v>
+        <v>175.2341099238429</v>
       </c>
       <c r="K39" t="n">
-        <v>381.858273766342</v>
+        <v>494.9732559860694</v>
       </c>
       <c r="L39" t="n">
-        <v>865.4243596646552</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="M39" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N39" t="n">
         <v>1223.947919817482</v>
@@ -7330,19 +7330,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="J40" t="n">
-        <v>62.11912770411553</v>
+        <v>67.69877031229933</v>
       </c>
       <c r="K40" t="n">
-        <v>143.9541688140574</v>
+        <v>278.5901810446697</v>
       </c>
       <c r="L40" t="n">
-        <v>308.0818086878572</v>
+        <v>442.7178209184696</v>
       </c>
       <c r="M40" t="n">
-        <v>623.4297566485498</v>
+        <v>629.0093992567336</v>
       </c>
       <c r="N40" t="n">
-        <v>806.6193906797589</v>
+        <v>812.1990332879427</v>
       </c>
       <c r="O40" t="n">
         <v>974.9038003296507</v>
@@ -7388,28 +7388,28 @@
         <v>1614.059487414177</v>
       </c>
       <c r="C41" t="n">
-        <v>1352.560722599515</v>
+        <v>1352.560722599516</v>
       </c>
       <c r="D41" t="n">
         <v>1098.796330498592</v>
       </c>
       <c r="E41" t="n">
-        <v>827.8895422975447</v>
+        <v>827.8895422975452</v>
       </c>
       <c r="F41" t="n">
-        <v>542.6718405099309</v>
+        <v>542.6718405099314</v>
       </c>
       <c r="G41" t="n">
-        <v>261.1858216803425</v>
+        <v>261.185821680343</v>
       </c>
       <c r="H41" t="n">
         <v>68.77950792924229</v>
       </c>
       <c r="I41" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J41" t="n">
-        <v>206.7689006129436</v>
+        <v>206.7689006129437</v>
       </c>
       <c r="K41" t="n">
         <v>565.7512566404055</v>
@@ -7430,13 +7430,13 @@
         <v>2921.110825064828</v>
       </c>
       <c r="Q41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="R41" t="n">
-        <v>3105.956385205776</v>
+        <v>3105.956385205777</v>
       </c>
       <c r="S41" t="n">
-        <v>3071.119566829235</v>
+        <v>3071.119566829236</v>
       </c>
       <c r="T41" t="n">
         <v>2979.295701071061</v>
@@ -7445,10 +7445,10 @@
         <v>2855.219708188068</v>
       </c>
       <c r="V41" t="n">
-        <v>2644.789635573994</v>
+        <v>2644.789635573995</v>
       </c>
       <c r="W41" t="n">
-        <v>2405.46733722469</v>
+        <v>2405.467337224691</v>
       </c>
       <c r="X41" t="n">
         <v>2147.691468840156</v>
@@ -7482,10 +7482,10 @@
         <v>199.803798091603</v>
       </c>
       <c r="H42" t="n">
-        <v>111.5063816922039</v>
+        <v>111.506381692204</v>
       </c>
       <c r="I42" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J42" t="n">
         <v>175.2341099238429</v>
@@ -7497,7 +7497,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M42" t="n">
-        <v>1223.947919817482</v>
+        <v>978.5393418843826</v>
       </c>
       <c r="N42" t="n">
         <v>1223.947919817482</v>
@@ -7543,31 +7543,31 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>235.9319791885598</v>
+        <v>235.9319791885596</v>
       </c>
       <c r="C43" t="n">
-        <v>197.4035979369575</v>
+        <v>197.4035979369573</v>
       </c>
       <c r="D43" t="n">
-        <v>173.4472215218806</v>
+        <v>173.4472215218805</v>
       </c>
       <c r="E43" t="n">
-        <v>149.5651460634915</v>
+        <v>149.5651460634914</v>
       </c>
       <c r="F43" t="n">
-        <v>123.9159479588729</v>
+        <v>123.9159479588728</v>
       </c>
       <c r="G43" t="n">
-        <v>87.33863074072684</v>
+        <v>87.3386307407268</v>
       </c>
       <c r="H43" t="n">
-        <v>63.53681638462923</v>
+        <v>63.53681638462922</v>
       </c>
       <c r="I43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="J43" t="n">
-        <v>62.11912770411553</v>
+        <v>62.11912770411555</v>
       </c>
       <c r="K43" t="n">
         <v>143.9541688140574</v>
@@ -7576,16 +7576,16 @@
         <v>308.0818086878572</v>
       </c>
       <c r="M43" t="n">
-        <v>623.4297566485496</v>
+        <v>623.4297566485498</v>
       </c>
       <c r="N43" t="n">
         <v>806.6193906797589</v>
       </c>
       <c r="O43" t="n">
-        <v>969.3241577214669</v>
+        <v>974.9038003296512</v>
       </c>
       <c r="P43" t="n">
-        <v>1089.200323498045</v>
+        <v>1094.77996610623</v>
       </c>
       <c r="Q43" t="n">
         <v>1098.202162476281</v>
@@ -7594,25 +7594,25 @@
         <v>1098.202162476281</v>
       </c>
       <c r="S43" t="n">
-        <v>1027.062815341239</v>
+        <v>1027.062815341238</v>
       </c>
       <c r="T43" t="n">
-        <v>923.0205001918814</v>
+        <v>923.020500191881</v>
       </c>
       <c r="U43" t="n">
-        <v>769.2584451161907</v>
+        <v>769.2584451161904</v>
       </c>
       <c r="V43" t="n">
-        <v>634.9558366194234</v>
+        <v>634.9558366194231</v>
       </c>
       <c r="W43" t="n">
-        <v>483.3021712330094</v>
+        <v>483.3021712330091</v>
       </c>
       <c r="X43" t="n">
-        <v>380.898585698401</v>
+        <v>380.8985856984007</v>
       </c>
       <c r="Y43" t="n">
-        <v>289.4632611974527</v>
+        <v>289.4632611974525</v>
       </c>
     </row>
     <row r="44">
@@ -7734,7 +7734,7 @@
         <v>978.5393418843826</v>
       </c>
       <c r="M45" t="n">
-        <v>978.5393418843826</v>
+        <v>1223.947919817482</v>
       </c>
       <c r="N45" t="n">
         <v>1223.947919817482</v>
@@ -7807,19 +7807,19 @@
         <v>62.11912770411553</v>
       </c>
       <c r="K46" t="n">
-        <v>149.5338114222416</v>
+        <v>143.9541688140574</v>
       </c>
       <c r="L46" t="n">
-        <v>313.6614512960414</v>
+        <v>308.0818086878572</v>
       </c>
       <c r="M46" t="n">
-        <v>499.9530296343054</v>
+        <v>494.3733870261212</v>
       </c>
       <c r="N46" t="n">
         <v>683.1426636655146</v>
       </c>
       <c r="O46" t="n">
-        <v>974.9038003296512</v>
+        <v>845.8474307072227</v>
       </c>
       <c r="P46" t="n">
         <v>1094.77996610623</v>
@@ -7982,13 +7982,13 @@
         <v>143.0584031792374</v>
       </c>
       <c r="L2" t="n">
-        <v>246.3235116806324</v>
+        <v>186.9664330399945</v>
       </c>
       <c r="M2" t="n">
-        <v>693.4207940321642</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N2" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O2" t="n">
         <v>594.0482827698827</v>
@@ -8055,28 +8055,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J3" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K3" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L3" t="n">
         <v>578.5109386733963</v>
       </c>
       <c r="M3" t="n">
-        <v>636.0828644837487</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N3" t="n">
-        <v>629.0678552886035</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O3" t="n">
-        <v>92.68755888888889</v>
+        <v>183.630508041353</v>
       </c>
       <c r="P3" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q3" t="n">
-        <v>258.2429872044969</v>
+        <v>90.98815315591399</v>
       </c>
       <c r="R3" t="n">
         <v>71.01380490566048</v>
@@ -8213,28 +8213,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>263.7907196684351</v>
+        <v>117.6798379423461</v>
       </c>
       <c r="K5" t="n">
-        <v>322.1279678805739</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L5" t="n">
         <v>651.5514946987026</v>
       </c>
       <c r="M5" t="n">
-        <v>149.7250515977273</v>
+        <v>668.5156360519575</v>
       </c>
       <c r="N5" t="n">
-        <v>682.2612020826953</v>
+        <v>667.9090757920143</v>
       </c>
       <c r="O5" t="n">
-        <v>594.0482827698827</v>
+        <v>149.5638374240964</v>
       </c>
       <c r="P5" t="n">
-        <v>502.0059847475129</v>
+        <v>150.3014472409252</v>
       </c>
       <c r="Q5" t="n">
-        <v>144.4986984183922</v>
+        <v>300.2068661913378</v>
       </c>
       <c r="R5" t="n">
         <v>102.5176150018526</v>
@@ -8298,22 +8298,22 @@
         <v>89.59693533333335</v>
       </c>
       <c r="L6" t="n">
-        <v>578.5109386733963</v>
+        <v>351.1572798636135</v>
       </c>
       <c r="M6" t="n">
-        <v>636.0828644837487</v>
+        <v>611.177706503542</v>
       </c>
       <c r="N6" t="n">
-        <v>629.0678552886035</v>
+        <v>604.1626973083968</v>
       </c>
       <c r="O6" t="n">
-        <v>614.4252180716981</v>
+        <v>611.4781433431191</v>
       </c>
       <c r="P6" t="n">
-        <v>142.3190939440756</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R6" t="n">
         <v>71.01380490566048</v>
@@ -8453,7 +8453,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K8" t="n">
-        <v>217.3212662032442</v>
+        <v>492.6922186134283</v>
       </c>
       <c r="L8" t="n">
         <v>651.5514946987026</v>
@@ -8462,16 +8462,16 @@
         <v>701.2411122488187</v>
       </c>
       <c r="N8" t="n">
-        <v>682.2612020826953</v>
+        <v>149.1184913377841</v>
       </c>
       <c r="O8" t="n">
-        <v>149.5638374240964</v>
+        <v>594.0482827698827</v>
       </c>
       <c r="P8" t="n">
         <v>502.0059847475129</v>
       </c>
       <c r="Q8" t="n">
-        <v>331.2113854294513</v>
+        <v>144.4986984183922</v>
       </c>
       <c r="R8" t="n">
         <v>102.5176150018526</v>
@@ -8529,28 +8529,28 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J9" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K9" t="n">
         <v>412.5657697396227</v>
       </c>
       <c r="L9" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M9" t="n">
         <v>683.7992483186069</v>
       </c>
       <c r="N9" t="n">
-        <v>581.2880043687418</v>
+        <v>673.3036524843452</v>
       </c>
       <c r="O9" t="n">
-        <v>614.4252180716981</v>
+        <v>92.68755888888889</v>
       </c>
       <c r="P9" t="n">
-        <v>496.801919078302</v>
+        <v>87.08336481931465</v>
       </c>
       <c r="Q9" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R9" t="n">
         <v>71.01380490566048</v>
@@ -8769,22 +8769,22 @@
         <v>196.7020151310378</v>
       </c>
       <c r="K12" t="n">
-        <v>262.1075997502998</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L12" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M12" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N12" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O12" t="n">
-        <v>614.4252180716981</v>
+        <v>228.1998931286865</v>
       </c>
       <c r="P12" t="n">
-        <v>87.08336481931465</v>
+        <v>496.801919078302</v>
       </c>
       <c r="Q12" t="n">
         <v>327.7205688679246</v>
@@ -9003,7 +9003,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J15" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K15" t="n">
         <v>412.5657697396227</v>
@@ -9012,19 +9012,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M15" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N15" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O15" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P15" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q15" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R15" t="n">
         <v>71.01380490566048</v>
@@ -9240,7 +9240,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J18" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K18" t="n">
         <v>412.5657697396227</v>
@@ -9249,19 +9249,19 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M18" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N18" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O18" t="n">
-        <v>579.1898666384017</v>
+        <v>614.4252180716981</v>
       </c>
       <c r="P18" t="n">
         <v>496.801919078302</v>
       </c>
       <c r="Q18" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R18" t="n">
         <v>71.01380490566048</v>
@@ -9413,7 +9413,7 @@
         <v>682.2612020826953</v>
       </c>
       <c r="O20" t="n">
-        <v>594.0482827698827</v>
+        <v>594.0482827698837</v>
       </c>
       <c r="P20" t="n">
         <v>502.0059847475129</v>
@@ -9638,7 +9638,7 @@
         <v>263.7907196684351</v>
       </c>
       <c r="K23" t="n">
-        <v>505.6668436110188</v>
+        <v>505.666843611017</v>
       </c>
       <c r="L23" t="n">
         <v>651.5514946987026</v>
@@ -9714,7 +9714,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J24" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K24" t="n">
         <v>412.5657697396227</v>
@@ -9723,7 +9723,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M24" t="n">
-        <v>691.2645480167034</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N24" t="n">
         <v>85.37211285416666</v>
@@ -9735,7 +9735,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q24" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R24" t="n">
         <v>71.01380490566048</v>
@@ -9957,19 +9957,19 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L27" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M27" t="n">
         <v>726.4998994499999</v>
       </c>
       <c r="N27" t="n">
-        <v>747.7741039759435</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O27" t="n">
         <v>614.4252180716981</v>
       </c>
       <c r="P27" t="n">
-        <v>173.3576105420019</v>
+        <v>347.309009847301</v>
       </c>
       <c r="Q27" t="n">
         <v>90.98815315591399</v>
@@ -10188,7 +10188,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J30" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K30" t="n">
         <v>412.5657697396227</v>
@@ -10197,7 +10197,7 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M30" t="n">
-        <v>691.2645480167031</v>
+        <v>340.274574506988</v>
       </c>
       <c r="N30" t="n">
         <v>85.37211285416666</v>
@@ -10209,7 +10209,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q30" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R30" t="n">
         <v>71.01380490566048</v>
@@ -10425,19 +10425,19 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J33" t="n">
-        <v>196.2265410010274</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K33" t="n">
-        <v>89.59693533333335</v>
+        <v>412.5657697396227</v>
       </c>
       <c r="L33" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M33" t="n">
-        <v>726.4998994499999</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N33" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118435</v>
       </c>
       <c r="O33" t="n">
         <v>614.4252180716981</v>
@@ -10446,7 +10446,7 @@
         <v>496.801919078302</v>
       </c>
       <c r="Q33" t="n">
-        <v>90.98815315591399</v>
+        <v>327.7205688679246</v>
       </c>
       <c r="R33" t="n">
         <v>71.01380490566048</v>
@@ -10668,13 +10668,13 @@
         <v>412.5657697396227</v>
       </c>
       <c r="L36" t="n">
-        <v>90.06034685691823</v>
+        <v>578.5109386733963</v>
       </c>
       <c r="M36" t="n">
-        <v>166.3231752016895</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N36" t="n">
-        <v>747.7741039759435</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O36" t="n">
         <v>614.4252180716981</v>
@@ -10838,7 +10838,7 @@
         <v>594.0482827698827</v>
       </c>
       <c r="P38" t="n">
-        <v>502.0059847475131</v>
+        <v>502.0059847475129</v>
       </c>
       <c r="Q38" t="n">
         <v>331.2113854294513</v>
@@ -10899,7 +10899,7 @@
         <v>15.79616555179249</v>
       </c>
       <c r="J39" t="n">
-        <v>82.44445733333335</v>
+        <v>196.7020151310378</v>
       </c>
       <c r="K39" t="n">
         <v>412.5657697396227</v>
@@ -10908,10 +10908,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M39" t="n">
-        <v>454.5321323046928</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N39" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O39" t="n">
         <v>614.4252180716981</v>
@@ -11145,10 +11145,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M42" t="n">
-        <v>340.2745745069883</v>
+        <v>92.38712204931191</v>
       </c>
       <c r="N42" t="n">
-        <v>85.37211285416666</v>
+        <v>333.2595653118431</v>
       </c>
       <c r="O42" t="n">
         <v>614.4252180716981</v>
@@ -11382,10 +11382,10 @@
         <v>578.5109386733963</v>
       </c>
       <c r="M45" t="n">
-        <v>92.38712204931191</v>
+        <v>340.2745745069883</v>
       </c>
       <c r="N45" t="n">
-        <v>333.2595653118431</v>
+        <v>85.37211285416666</v>
       </c>
       <c r="O45" t="n">
         <v>614.4252180716981</v>
@@ -23258,22 +23258,22 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>318.1654340873667</v>
       </c>
       <c r="D11" t="n">
-        <v>310.5084051007669</v>
+        <v>0</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>341.6471816905901</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>47.29534815981447</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23315,13 +23315,13 @@
         <v>182.1168898750154</v>
       </c>
       <c r="V11" t="n">
-        <v>82.11979221546247</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>314.4797666215418</v>
+        <v>0</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23413,28 +23413,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.74697371741344</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>97.4247543599387</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>82.99846957177843</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>84.67436304442481</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>82.845453133389</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>60.68516871456093</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>51.58366707901685</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>105.8670389294966</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>209.4187856534022</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23498,7 +23498,7 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>278.5343549045808</v>
+        <v>0</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
@@ -23507,7 +23507,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>337.9528155621449</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23546,22 +23546,22 @@
         <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>47.70765878175334</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>182.1168898750154</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>296.2107322866634</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>314.4797666215417</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>321.4474895938729</v>
       </c>
     </row>
     <row r="15">
@@ -23650,28 +23650,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>44.82692028953177</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>82.99846957177844</v>
       </c>
       <c r="E16" t="n">
-        <v>82.92491162465751</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>84.67436304442478</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>42.8922104972733</v>
+        <v>95.49320096681696</v>
       </c>
       <c r="H16" t="n">
-        <v>82.84545313338896</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>60.68516871456089</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23704,19 +23704,19 @@
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>162.2835489187162</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>192.241239332652</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>160.6612066001148</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23741,7 +23741,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -24035,7 +24035,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>1229964.996355346</v>
+        <v>1229363.448741586</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>1229964.996355346</v>
+        <v>1229363.448741586</v>
       </c>
     </row>
     <row r="4">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>1234034.179209804</v>
+        <v>1234034.179209803</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>1234034.179209803</v>
+        <v>1234034.179209804</v>
       </c>
     </row>
     <row r="9">
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>54099.65342800705</v>
+        <v>54099.65342800702</v>
       </c>
       <c r="C2" t="n">
-        <v>54099.65342800704</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="D2" t="n">
         <v>54099.65342800703</v>
@@ -26323,10 +26323,10 @@
         <v>47807.70702732015</v>
       </c>
       <c r="F2" t="n">
-        <v>47807.70702732014</v>
+        <v>47807.70702732012</v>
       </c>
       <c r="G2" t="n">
-        <v>54099.65342800705</v>
+        <v>54099.65342800703</v>
       </c>
       <c r="H2" t="n">
         <v>54099.65342800704</v>
@@ -26335,22 +26335,22 @@
         <v>54099.65342800703</v>
       </c>
       <c r="J2" t="n">
+        <v>54099.65342800702</v>
+      </c>
+      <c r="K2" t="n">
+        <v>54099.65342800701</v>
+      </c>
+      <c r="L2" t="n">
+        <v>54099.653428007</v>
+      </c>
+      <c r="M2" t="n">
+        <v>54099.65342800703</v>
+      </c>
+      <c r="N2" t="n">
         <v>54099.65342800705</v>
       </c>
-      <c r="K2" t="n">
-        <v>54099.65342800705</v>
-      </c>
-      <c r="L2" t="n">
-        <v>54099.65342800697</v>
-      </c>
-      <c r="M2" t="n">
-        <v>54099.65342800704</v>
-      </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>54099.65342800703</v>
-      </c>
-      <c r="O2" t="n">
-        <v>54099.65342800705</v>
       </c>
       <c r="P2" t="n">
         <v>54099.65342800705</v>
@@ -26363,22 +26363,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>182204.9482918558</v>
+        <v>173858.657034055</v>
       </c>
       <c r="C3" t="n">
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>14822.14031062201</v>
+        <v>22558.42953401362</v>
       </c>
       <c r="E3" t="n">
         <v>112122.5614740446</v>
       </c>
       <c r="F3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>47425.32553668188</v>
+        <v>47425.32553668194</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,25 +26387,25 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>206802.1491945024</v>
+        <v>200285.8640399293</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>57301.47179728551</v>
+        <v>62456.24177539681</v>
       </c>
       <c r="M3" t="n">
-        <v>42200.82945962303</v>
+        <v>43252.52447081121</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>27767.69404277123</v>
+        <v>27767.6940427712</v>
       </c>
       <c r="P3" t="n">
-        <v>2.273736754432321e-11</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166297</v>
       </c>
       <c r="C4" t="n">
-        <v>188945.5063541668</v>
+        <v>195056.1330166297</v>
       </c>
       <c r="D4" t="n">
         <v>177238.0115641587</v>
       </c>
       <c r="E4" t="n">
-        <v>99893.08150805107</v>
+        <v>99893.08150805104</v>
       </c>
       <c r="F4" t="n">
-        <v>99893.08150805108</v>
+        <v>99893.08150805105</v>
       </c>
       <c r="G4" t="n">
         <v>147651.9979996332</v>
@@ -26439,22 +26439,22 @@
         <v>147651.9979996332</v>
       </c>
       <c r="J4" t="n">
-        <v>148402.4904640163</v>
+        <v>148402.4904640164</v>
       </c>
       <c r="K4" t="n">
         <v>148402.4904640163</v>
       </c>
       <c r="L4" t="n">
-        <v>148146.916563533</v>
+        <v>148013.5219544783</v>
       </c>
       <c r="M4" t="n">
-        <v>147651.9979996332</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="N4" t="n">
         <v>147651.9979996332</v>
       </c>
       <c r="O4" t="n">
-        <v>147651.9979996331</v>
+        <v>147651.9979996333</v>
       </c>
       <c r="P4" t="n">
         <v>147651.9979996332</v>
@@ -26467,10 +26467,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="C5" t="n">
-        <v>66684.30114001376</v>
+        <v>65170.06753481719</v>
       </c>
       <c r="D5" t="n">
         <v>69585.45727717315</v>
@@ -26485,10 +26485,10 @@
         <v>58169.76931551966</v>
       </c>
       <c r="H5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="I5" t="n">
-        <v>58169.76931551968</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="J5" t="n">
         <v>63659.0452539195</v>
@@ -26497,16 +26497,16 @@
         <v>63659.0452539195</v>
       </c>
       <c r="L5" t="n">
-        <v>61795.73629173847</v>
+        <v>60823.19813315421</v>
       </c>
       <c r="M5" t="n">
-        <v>58169.76931551966</v>
+        <v>58169.76931551967</v>
       </c>
       <c r="N5" t="n">
         <v>58169.76931551966</v>
       </c>
       <c r="O5" t="n">
-        <v>58169.76931551965</v>
+        <v>58169.76931551968</v>
       </c>
       <c r="P5" t="n">
         <v>58169.76931551966</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-383735.1023580292</v>
+        <v>-379985.2041574948</v>
       </c>
       <c r="C6" t="n">
-        <v>-201530.1540661735</v>
+        <v>-206126.5471234398</v>
       </c>
       <c r="D6" t="n">
-        <v>-207545.9557239468</v>
+        <v>-215282.2449473385</v>
       </c>
       <c r="E6" t="n">
-        <v>-217393.955654616</v>
+        <v>-217603.6872013055</v>
       </c>
       <c r="F6" t="n">
-        <v>-105271.3941805715</v>
+        <v>-105481.125727261</v>
       </c>
       <c r="G6" t="n">
-        <v>-199147.4394238277</v>
+        <v>-199147.4394238278</v>
       </c>
       <c r="H6" t="n">
         <v>-151722.1138871458</v>
       </c>
       <c r="I6" t="n">
-        <v>-151722.1138871459</v>
+        <v>-151722.1138871458</v>
       </c>
       <c r="J6" t="n">
-        <v>-364764.0314844312</v>
+        <v>-358247.7463298581</v>
       </c>
       <c r="K6" t="n">
         <v>-157961.8822899288</v>
       </c>
       <c r="L6" t="n">
-        <v>-213144.47122455</v>
+        <v>-217193.3084350223</v>
       </c>
       <c r="M6" t="n">
-        <v>-193922.9433467689</v>
+        <v>-194974.6383579571</v>
       </c>
       <c r="N6" t="n">
         <v>-151722.1138871458</v>
       </c>
       <c r="O6" t="n">
-        <v>-179489.807929917</v>
+        <v>-179489.8079299171</v>
       </c>
       <c r="P6" t="n">
         <v>-151722.1138871458</v>
@@ -26692,10 +26692,10 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G2" t="n">
         <v>130.3599693155844</v>
@@ -26707,13 +26707,13 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J2" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K2" t="n">
         <v>93.99127447431646</v>
       </c>
       <c r="L2" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="M2" t="n">
         <v>130.3599693155844</v>
@@ -26722,7 +26722,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="O2" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P2" t="n">
         <v>130.3599693155844</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="D4" t="n">
         <v>591.4121262692951</v>
@@ -26805,28 +26805,28 @@
         <v>776.4890963014441</v>
       </c>
       <c r="H4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="I4" t="n">
-        <v>776.4890963014444</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="J4" t="n">
-        <v>917.060736844378</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="K4" t="n">
-        <v>917.0607368443782</v>
+        <v>917.0607368443783</v>
       </c>
       <c r="L4" t="n">
-        <v>869.34435300952</v>
+        <v>844.4391950293134</v>
       </c>
       <c r="M4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014442</v>
       </c>
       <c r="N4" t="n">
         <v>776.4890963014441</v>
       </c>
       <c r="O4" t="n">
-        <v>776.4890963014441</v>
+        <v>776.4890963014443</v>
       </c>
       <c r="P4" t="n">
         <v>776.4890963014441</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,25 +26929,25 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>71.62683974660689</v>
+        <v>78.07030221924602</v>
       </c>
       <c r="M2" t="n">
-        <v>24.02351201551339</v>
+        <v>17.58004954287433</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.70961755346404</v>
+        <v>34.709617553464</v>
       </c>
       <c r="P2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27009,13 +27009,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="E4" t="n">
         <v>185.076970032149</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>684.2673829773704</v>
+        <v>659.3622249971643</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>92.22171332407311</v>
+        <v>117.1268713042798</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K2" t="n">
-        <v>2.842170943040401e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>59.28165692085236</v>
+        <v>59.28165692085243</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>34.7096175534641</v>
+        <v>34.70961755346403</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27255,13 +27255,13 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>47.71638383485822</v>
+        <v>72.62154181506492</v>
       </c>
       <c r="M4" t="n">
         <v>185.076970032149</v>
@@ -27376,7 +27376,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C2" t="n">
         <v>389.2437464820987</v>
@@ -27397,7 +27397,7 @@
         <v>320.8422199291742</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27430,22 +27430,22 @@
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>253.1952022697474</v>
       </c>
       <c r="V2" t="n">
-        <v>159.0430832033139</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>367.2890446813954</v>
       </c>
       <c r="X2" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>329.0751517326084</v>
       </c>
     </row>
     <row r="3">
@@ -27464,7 +27464,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>135.0820259802211</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27473,7 +27473,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>87.41444223540508</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27518,10 +27518,10 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>185.1777423863171</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>59.33321126027715</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -27534,28 +27534,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C4" t="n">
         <v>168.5030667546707</v>
       </c>
       <c r="D4" t="n">
-        <v>43.08791022350457</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>155.7526754391568</v>
       </c>
       <c r="G4" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>153.923765528121</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>131.7634811092929</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27585,19 +27585,19 @@
         <v>122.6619794737488</v>
       </c>
       <c r="S4" t="n">
-        <v>200.7879229792761</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
         <v>233.3618613134482</v>
       </c>
       <c r="U4" t="n">
-        <v>282.5844038405181</v>
+        <v>95.66578132326501</v>
       </c>
       <c r="V4" t="n">
         <v>263.319551727384</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>280.4970980481341</v>
       </c>
       <c r="X4" t="n">
         <v>231.7395189948467</v>
@@ -27613,7 +27613,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>396.4897982542829</v>
       </c>
       <c r="C5" t="n">
         <v>389.2437464820987</v>
@@ -27625,13 +27625,13 @@
         <v>398.5576896346209</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>12.15895015439429</v>
       </c>
       <c r="G5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>320.8422199291742</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27673,7 +27673,7 @@
         <v>253.1952022697474</v>
       </c>
       <c r="V5" t="n">
-        <v>337.3145306048287</v>
+        <v>338.6857412035168</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27682,7 +27682,7 @@
         <v>385.5580790162737</v>
       </c>
       <c r="Y5" t="n">
-        <v>392.5258019886049</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27746,16 +27746,16 @@
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>175.2139736830806</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>106.6157057928226</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>185.1777423863171</v>
+        <v>0</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27774,13 +27774,13 @@
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>116.8950213743527</v>
       </c>
       <c r="D7" t="n">
         <v>154.0767819665104</v>
       </c>
       <c r="E7" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>155.7526754391568</v>
@@ -27819,7 +27819,7 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S7" t="n">
         <v>200.7879229792761</v>
@@ -27831,7 +27831,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>127.992387984573</v>
+        <v>263.319551727384</v>
       </c>
       <c r="W7" t="n">
         <v>280.4970980481341</v>
@@ -27840,7 +27840,7 @@
         <v>231.7395189948467</v>
       </c>
       <c r="Y7" t="n">
-        <v>220.8809405715231</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>389.2437464820987</v>
       </c>
       <c r="D8" t="n">
-        <v>381.5867174954989</v>
+        <v>79.81277200026148</v>
       </c>
       <c r="E8" t="n">
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
         <v>320.8422199291742</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>136.9537457384598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27898,13 +27898,13 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>37.61298457733328</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>12.69784203414085</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>221.2655964161775</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>253.1952022697474</v>
@@ -27913,10 +27913,10 @@
         <v>338.6857412035168</v>
       </c>
       <c r="W8" t="n">
-        <v>367.2890446813954</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>385.5580790162737</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>392.5258019886049</v>
@@ -28008,31 +28008,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>183.3559385043883</v>
       </c>
       <c r="C10" t="n">
-        <v>43.81039361858477</v>
+        <v>168.5030667546707</v>
       </c>
       <c r="D10" t="n">
-        <v>154.0767819665104</v>
+        <v>53.73337658004151</v>
       </c>
       <c r="E10" t="n">
-        <v>154.0032240193895</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>155.7526754391568</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.5715133615489</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>153.923765528121</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>30.07448747215907</v>
+        <v>0</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28074,10 +28074,10 @@
         <v>280.4970980481341</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>231.7395189948467</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>220.8809405715231</v>
       </c>
     </row>
     <row r="11">
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y11" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y13" t="n">
-        <v>71.07831239473197</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>37.61298457733328</v>
       </c>
       <c r="S14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y14" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="C16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="D16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="E16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="F16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="G16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="H16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="I16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="J16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="K16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="L16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="M16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="N16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="O16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="P16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Q16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="R16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="S16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="T16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="U16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="V16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="W16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="X16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
       <c r="Y16" t="n">
-        <v>71.078312394732</v>
+        <v>71.07831239473195</v>
       </c>
     </row>
     <row r="17">
@@ -28758,16 +28758,16 @@
         <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="P19" t="n">
-        <v>128.2979821082783</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S19" t="n">
         <v>130.3599693155844</v>
@@ -28980,31 +28980,31 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J22" t="n">
+        <v>30.07448747215907</v>
+      </c>
+      <c r="K22" t="n">
+        <v>0</v>
+      </c>
+      <c r="L22" t="n">
+        <v>0</v>
+      </c>
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="n">
+        <v>0</v>
+      </c>
+      <c r="O22" t="n">
+        <v>0</v>
+      </c>
+      <c r="P22" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="K22" t="n">
-        <v>0</v>
-      </c>
-      <c r="L22" t="n">
-        <v>0</v>
-      </c>
-      <c r="M22" t="n">
-        <v>28.01250026485309</v>
-      </c>
-      <c r="N22" t="n">
-        <v>0</v>
-      </c>
-      <c r="O22" t="n">
-        <v>0</v>
-      </c>
-      <c r="P22" t="n">
-        <v>0</v>
-      </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>130.3599693155844</v>
+        <v>128.2979821082779</v>
       </c>
       <c r="S22" t="n">
         <v>130.3599693155844</v>
@@ -29229,19 +29229,19 @@
         <v>0</v>
       </c>
       <c r="N25" t="n">
-        <v>0</v>
+        <v>5.636002634529035</v>
       </c>
       <c r="O25" t="n">
         <v>0</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Q25" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>128.2979821082786</v>
+        <v>122.6619794737488</v>
       </c>
       <c r="S25" t="n">
         <v>130.3599693155844</v>
@@ -29272,76 +29272,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J26" t="n">
-        <v>93.99127447431648</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P26" t="n">
-        <v>86.65052755599447</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>93.99127447431648</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="R26" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y26" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="C28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="D28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="E28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="F28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="G28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="H28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="I28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="J28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="K28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="L28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="M28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="N28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="O28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="P28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431664</v>
       </c>
       <c r="Q28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="R28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="S28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="T28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="U28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="V28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="W28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="X28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
       <c r="Y28" t="n">
-        <v>93.99127447431648</v>
+        <v>93.99127447431644</v>
       </c>
     </row>
     <row r="29">
@@ -29536,16 +29536,16 @@
         <v>93.99127447431646</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="L29" t="n">
-        <v>30.27223765901215</v>
+        <v>93.99127447431646</v>
       </c>
       <c r="M29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>93.99127447431646</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>93.99127447431646</v>
@@ -29554,10 +29554,10 @@
         <v>93.99127447431646</v>
       </c>
       <c r="Q29" t="n">
-        <v>0</v>
+        <v>86.65052755599578</v>
       </c>
       <c r="R29" t="n">
-        <v>93.99127447431646</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S29" t="n">
         <v>93.99127447431646</v>
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29779,43 +29779,43 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="N32" t="n">
-        <v>106.336457300071</v>
+        <v>43.4950968315984</v>
       </c>
       <c r="O32" t="n">
-        <v>86.27291196566421</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Q32" t="n">
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>106.336457300071</v>
+        <v>37.61298457733328</v>
       </c>
       <c r="S32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y32" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="C34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="D34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="E34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="F34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="G34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="H34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="I34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="J34" t="n">
         <v>30.07448747215907</v>
       </c>
       <c r="K34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="L34" t="n">
         <v>0</v>
       </c>
       <c r="M34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="N34" t="n">
-        <v>106.336457300071</v>
+        <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="P34" t="n">
-        <v>94.9764384404516</v>
+        <v>76.79385455031209</v>
       </c>
       <c r="Q34" t="n">
-        <v>0</v>
+        <v>112.77991977271</v>
       </c>
       <c r="R34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="S34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="T34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="U34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="V34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="W34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="X34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
       <c r="Y34" t="n">
-        <v>106.336457300071</v>
+        <v>112.77991977271</v>
       </c>
     </row>
     <row r="35">
@@ -30016,7 +30016,7 @@
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1.023181539494544e-12</v>
       </c>
       <c r="N35" t="n">
         <v>0</v>
@@ -30168,19 +30168,19 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>5.636002634529092</v>
+      </c>
+      <c r="M37" t="n">
         <v>130.3599693155844</v>
       </c>
-      <c r="L37" t="n">
-        <v>0</v>
-      </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
       <c r="N37" t="n">
         <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P37" t="n">
         <v>0</v>
@@ -30280,7 +30280,7 @@
         <v>130.3599693155844</v>
       </c>
       <c r="V38" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W38" t="n">
         <v>130.3599693155844</v>
@@ -30402,22 +30402,22 @@
         <v>130.3599693155844</v>
       </c>
       <c r="J40" t="n">
-        <v>30.07448747215907</v>
+        <v>35.71049010668816</v>
       </c>
       <c r="K40" t="n">
-        <v>0</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="L40" t="n">
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>130.3599693155844</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>5.636002634529035</v>
+        <v>0</v>
       </c>
       <c r="P40" t="n">
         <v>0</v>
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30502,31 +30502,31 @@
         <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>1.080024958355352e-12</v>
       </c>
       <c r="R41" t="n">
         <v>37.61298457733328</v>
       </c>
       <c r="S41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y41" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="42">
@@ -30615,28 +30615,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="C43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="D43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="E43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="F43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="G43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="H43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="I43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="J43" t="n">
         <v>30.07448747215907</v>
@@ -30648,43 +30648,43 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="N43" t="n">
         <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>0</v>
+        <v>5.63600263452949</v>
       </c>
       <c r="P43" t="n">
         <v>0</v>
       </c>
       <c r="Q43" t="n">
-        <v>5.636002634529923</v>
+        <v>0</v>
       </c>
       <c r="R43" t="n">
         <v>122.6619794737488</v>
       </c>
       <c r="S43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="T43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="U43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="V43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="W43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="X43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
       <c r="Y43" t="n">
-        <v>130.3599693155843</v>
+        <v>130.3599693155844</v>
       </c>
     </row>
     <row r="44">
@@ -30879,22 +30879,22 @@
         <v>30.07448747215907</v>
       </c>
       <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>0</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
         <v>5.63600263452949</v>
       </c>
-      <c r="L46" t="n">
-        <v>0</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="n">
-        <v>0</v>
-      </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
         <v>130.3599693155844</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
       </c>
       <c r="Q46" t="n">
         <v>0</v>
@@ -34702,13 +34702,13 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>93.07534195014065</v>
+        <v>33.71826330950282</v>
       </c>
       <c r="M2" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N2" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O2" t="n">
         <v>444.4844453457863</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L3" t="n">
         <v>488.450591816478</v>
       </c>
       <c r="M3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N3" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>90.94294915246407</v>
       </c>
       <c r="P3" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>167.2548340485829</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34933,28 +34933,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>146.110881726089</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>179.0695647013366</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L5" t="n">
         <v>498.303324968211</v>
       </c>
       <c r="M5" t="n">
-        <v>0</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N5" t="n">
-        <v>533.1427107449111</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O5" t="n">
-        <v>444.4844453457863</v>
+        <v>0</v>
       </c>
       <c r="P5" t="n">
-        <v>351.7045375065877</v>
+        <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>155.7081677729457</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35018,22 +35018,22 @@
         <v>0</v>
       </c>
       <c r="L6" t="n">
-        <v>488.450591816478</v>
+        <v>261.0969330066953</v>
       </c>
       <c r="M6" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="N6" t="n">
-        <v>543.6957424344369</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="O6" t="n">
-        <v>521.7376591828091</v>
+        <v>518.7905844542302</v>
       </c>
       <c r="P6" t="n">
-        <v>55.23572912476093</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K8" t="n">
-        <v>74.2628630240068</v>
+        <v>349.6338154341909</v>
       </c>
       <c r="L8" t="n">
         <v>498.303324968211</v>
@@ -35182,16 +35182,16 @@
         <v>551.5160606510915</v>
       </c>
       <c r="N8" t="n">
-        <v>533.1427107449111</v>
+        <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>0</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P8" t="n">
         <v>351.7045375065877</v>
       </c>
       <c r="Q8" t="n">
-        <v>186.7126870110591</v>
+        <v>0</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35249,28 +35249,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K9" t="n">
         <v>322.9688344062893</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M9" t="n">
         <v>591.4121262692951</v>
       </c>
       <c r="N9" t="n">
-        <v>495.9158915145752</v>
+        <v>587.9315396301786</v>
       </c>
       <c r="O9" t="n">
-        <v>521.7376591828091</v>
+        <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>409.7185542589873</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35489,22 +35489,22 @@
         <v>114.2575577977044</v>
       </c>
       <c r="K12" t="n">
-        <v>172.5106644169664</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M12" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N12" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>521.7376591828091</v>
+        <v>135.5123342397976</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>409.7185542589873</v>
       </c>
       <c r="Q12" t="n">
         <v>236.7324157120106</v>
@@ -35565,19 +35565,19 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>41.0038249225729</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K13" t="n">
         <v>153.7399700815419</v>
       </c>
       <c r="L13" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M13" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N13" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O13" t="n">
         <v>235.4265619318108</v>
@@ -35586,7 +35586,7 @@
         <v>192.1653485326901</v>
       </c>
       <c r="Q13" t="n">
-        <v>74.53507640488445</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35723,7 +35723,7 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K15" t="n">
         <v>322.9688344062893</v>
@@ -35732,19 +35732,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M15" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O15" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P15" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>41.00382492257292</v>
+        <v>41.00382492257288</v>
       </c>
       <c r="K16" t="n">
-        <v>153.739970081542</v>
+        <v>153.7399700815419</v>
       </c>
       <c r="L16" t="n">
-        <v>236.863807216752</v>
+        <v>236.8638072167519</v>
       </c>
       <c r="M16" t="n">
         <v>259.2516238475239</v>
       </c>
       <c r="N16" t="n">
-        <v>256.1183467696908</v>
+        <v>256.1183467696907</v>
       </c>
       <c r="O16" t="n">
-        <v>235.4265619318109</v>
+        <v>235.4265619318108</v>
       </c>
       <c r="P16" t="n">
-        <v>192.1653485326902</v>
+        <v>192.1653485326901</v>
       </c>
       <c r="Q16" t="n">
-        <v>74.53507640488448</v>
+        <v>74.53507640488444</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35960,7 +35960,7 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K18" t="n">
         <v>322.9688344062893</v>
@@ -35969,19 +35969,19 @@
         <v>488.450591816478</v>
       </c>
       <c r="M18" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O18" t="n">
-        <v>486.5023077495127</v>
+        <v>521.7376591828091</v>
       </c>
       <c r="P18" t="n">
         <v>409.7185542589873</v>
       </c>
       <c r="Q18" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36054,16 +36054,16 @@
         <v>185.0400343749588</v>
       </c>
       <c r="O19" t="n">
-        <v>164.3482495370789</v>
+        <v>294.7082188526632</v>
       </c>
       <c r="P19" t="n">
-        <v>249.3850182462365</v>
+        <v>121.0870361379582</v>
       </c>
       <c r="Q19" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R19" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -36133,7 +36133,7 @@
         <v>533.1427107449111</v>
       </c>
       <c r="O20" t="n">
-        <v>444.4844453457863</v>
+        <v>444.4844453457873</v>
       </c>
       <c r="P20" t="n">
         <v>351.7045375065877</v>
@@ -36276,7 +36276,7 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>100.2854818434253</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
         <v>82.66165768680997</v>
@@ -36285,7 +36285,7 @@
         <v>165.78549482202</v>
       </c>
       <c r="M22" t="n">
-        <v>216.185811717645</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N22" t="n">
         <v>185.0400343749588</v>
@@ -36294,13 +36294,13 @@
         <v>164.3482495370789</v>
       </c>
       <c r="P22" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q22" t="n">
         <v>3.456764010152483</v>
       </c>
       <c r="R22" t="n">
-        <v>7.69798984183555</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -36358,7 +36358,7 @@
         <v>146.110881726089</v>
       </c>
       <c r="K23" t="n">
-        <v>362.6084404317814</v>
+        <v>362.6084404317796</v>
       </c>
       <c r="L23" t="n">
         <v>498.303324968211</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K24" t="n">
         <v>322.9688344062893</v>
@@ -36443,7 +36443,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M24" t="n">
-        <v>598.8774259673916</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N24" t="n">
         <v>0</v>
@@ -36455,7 +36455,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36525,19 +36525,19 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N25" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094878</v>
       </c>
       <c r="O25" t="n">
         <v>164.3482495370789</v>
       </c>
       <c r="P25" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q25" t="n">
-        <v>133.8167333257368</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R25" t="n">
-        <v>5.636002634529784</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>240.1021562004055</v>
+        <v>146.110881726089</v>
       </c>
       <c r="K26" t="n">
         <v>456.5997149060961</v>
@@ -36601,19 +36601,19 @@
         <v>592.2945994425274</v>
       </c>
       <c r="M26" t="n">
-        <v>551.5160606510915</v>
+        <v>645.507335125408</v>
       </c>
       <c r="N26" t="n">
         <v>627.1339852192276</v>
       </c>
       <c r="O26" t="n">
-        <v>444.4844453457863</v>
+        <v>538.4757198201028</v>
       </c>
       <c r="P26" t="n">
-        <v>438.3550650625822</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q26" t="n">
-        <v>280.7039614853756</v>
+        <v>273.3632145670549</v>
       </c>
       <c r="R26" t="n">
         <v>0</v>
@@ -36677,19 +36677,19 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M27" t="n">
         <v>634.1127774006881</v>
       </c>
       <c r="N27" t="n">
-        <v>662.4019911217769</v>
+        <v>0</v>
       </c>
       <c r="O27" t="n">
         <v>521.7376591828091</v>
       </c>
       <c r="P27" t="n">
-        <v>86.27424572268727</v>
+        <v>260.2256450279863</v>
       </c>
       <c r="Q27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.91678700215741</v>
+        <v>63.91678700215737</v>
       </c>
       <c r="K28" t="n">
         <v>176.6529321611264</v>
       </c>
       <c r="L28" t="n">
-        <v>259.7767692963365</v>
+        <v>259.7767692963364</v>
       </c>
       <c r="M28" t="n">
         <v>282.1645859271084</v>
       </c>
       <c r="N28" t="n">
-        <v>279.0313088492753</v>
+        <v>279.0313088492752</v>
       </c>
       <c r="O28" t="n">
         <v>258.3395240113953</v>
       </c>
       <c r="P28" t="n">
-        <v>215.0783106122747</v>
+        <v>215.0783106122748</v>
       </c>
       <c r="Q28" t="n">
-        <v>97.44803848446897</v>
+        <v>97.44803848446892</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36832,16 +36832,16 @@
         <v>240.1021562004054</v>
       </c>
       <c r="K29" t="n">
-        <v>362.6084404317796</v>
+        <v>456.5997149060961</v>
       </c>
       <c r="L29" t="n">
-        <v>528.5755626272231</v>
+        <v>592.2945994425274</v>
       </c>
       <c r="M29" t="n">
-        <v>645.507335125408</v>
+        <v>551.5160606510915</v>
       </c>
       <c r="N29" t="n">
-        <v>627.1339852192276</v>
+        <v>533.1427107449111</v>
       </c>
       <c r="O29" t="n">
         <v>538.4757198201028</v>
@@ -36850,10 +36850,10 @@
         <v>445.6958119809042</v>
       </c>
       <c r="Q29" t="n">
-        <v>186.7126870110591</v>
+        <v>273.3632145670549</v>
       </c>
       <c r="R29" t="n">
-        <v>56.37828989698318</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,7 +36908,7 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K30" t="n">
         <v>322.9688344062893</v>
@@ -36917,7 +36917,7 @@
         <v>488.450591816478</v>
       </c>
       <c r="M30" t="n">
-        <v>598.8774259673912</v>
+        <v>247.8874524576761</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
@@ -36929,7 +36929,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -37075,22 +37075,22 @@
         <v>498.303324968211</v>
       </c>
       <c r="M32" t="n">
-        <v>657.8525179511624</v>
+        <v>664.2959804238016</v>
       </c>
       <c r="N32" t="n">
-        <v>639.4791680449821</v>
+        <v>576.6378075765095</v>
       </c>
       <c r="O32" t="n">
-        <v>530.7573573114505</v>
+        <v>444.4844453457863</v>
       </c>
       <c r="P32" t="n">
-        <v>351.7045375065877</v>
+        <v>464.4844572792978</v>
       </c>
       <c r="Q32" t="n">
         <v>186.7126870110591</v>
       </c>
       <c r="R32" t="n">
-        <v>68.72347272273771</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,19 +37145,19 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>113.7820836676941</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>322.9688344062893</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M33" t="n">
-        <v>634.1127774006881</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576769</v>
       </c>
       <c r="O33" t="n">
         <v>521.7376591828091</v>
@@ -37166,7 +37166,7 @@
         <v>409.7185542589873</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>236.7324157120106</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>0</v>
       </c>
       <c r="K34" t="n">
-        <v>188.998114986881</v>
+        <v>195.44157745952</v>
       </c>
       <c r="L34" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M34" t="n">
-        <v>294.509768752863</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N34" t="n">
-        <v>291.3764916750298</v>
+        <v>185.0400343749588</v>
       </c>
       <c r="O34" t="n">
-        <v>270.6847068371499</v>
+        <v>277.1281693097889</v>
       </c>
       <c r="P34" t="n">
-        <v>216.0634745784098</v>
+        <v>197.8808906882703</v>
       </c>
       <c r="Q34" t="n">
-        <v>3.456764010152483</v>
+        <v>116.2366837828625</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37312,7 +37312,7 @@
         <v>498.303324968211</v>
       </c>
       <c r="M35" t="n">
-        <v>551.5160606510915</v>
+        <v>551.5160606510925</v>
       </c>
       <c r="N35" t="n">
         <v>533.1427107449111</v>
@@ -37388,13 +37388,13 @@
         <v>322.9688344062893</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>488.450591816478</v>
       </c>
       <c r="M36" t="n">
-        <v>73.93605315237758</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>662.4019911217769</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O36" t="n">
         <v>521.7376591828091</v>
@@ -37464,19 +37464,19 @@
         <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>213.0216270023944</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L37" t="n">
-        <v>165.78549482202</v>
+        <v>171.4214974565491</v>
       </c>
       <c r="M37" t="n">
-        <v>188.1733114527919</v>
+        <v>318.5332807683764</v>
       </c>
       <c r="N37" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O37" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P37" t="n">
         <v>121.0870361379582</v>
@@ -37558,7 +37558,7 @@
         <v>444.4844453457863</v>
       </c>
       <c r="P38" t="n">
-        <v>351.7045375065879</v>
+        <v>351.7045375065877</v>
       </c>
       <c r="Q38" t="n">
         <v>186.7126870110591</v>
@@ -37619,7 +37619,7 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>114.2575577977044</v>
       </c>
       <c r="K39" t="n">
         <v>322.9688344062893</v>
@@ -37628,10 +37628,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M39" t="n">
-        <v>362.1450102553808</v>
+        <v>0</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="O39" t="n">
         <v>521.7376591828091</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>0</v>
+        <v>5.636002634529095</v>
       </c>
       <c r="K40" t="n">
-        <v>82.66165768680997</v>
+        <v>213.0216270023944</v>
       </c>
       <c r="L40" t="n">
         <v>165.78549482202</v>
       </c>
       <c r="M40" t="n">
-        <v>318.5332807683764</v>
+        <v>188.1733114527919</v>
       </c>
       <c r="N40" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O40" t="n">
-        <v>169.9842521716079</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P40" t="n">
         <v>121.0870361379582</v>
@@ -37798,7 +37798,7 @@
         <v>351.7045375065877</v>
       </c>
       <c r="Q41" t="n">
-        <v>186.7126870110591</v>
+        <v>186.7126870110602</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37865,10 +37865,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="n">
         <v>247.8874524576764</v>
-      </c>
-      <c r="N42" t="n">
-        <v>0</v>
       </c>
       <c r="O42" t="n">
         <v>521.7376591828091</v>
@@ -37944,19 +37944,19 @@
         <v>165.78549482202</v>
       </c>
       <c r="M43" t="n">
-        <v>318.5332807683762</v>
+        <v>318.5332807683763</v>
       </c>
       <c r="N43" t="n">
         <v>185.0400343749588</v>
       </c>
       <c r="O43" t="n">
-        <v>164.3482495370789</v>
+        <v>169.9842521716083</v>
       </c>
       <c r="P43" t="n">
         <v>121.0870361379582</v>
       </c>
       <c r="Q43" t="n">
-        <v>9.092766644682406</v>
+        <v>3.456764010152483</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38102,10 +38102,10 @@
         <v>488.450591816478</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>247.8874524576764</v>
       </c>
       <c r="N45" t="n">
-        <v>247.8874524576764</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>521.7376591828091</v>
@@ -38175,7 +38175,7 @@
         <v>0</v>
       </c>
       <c r="K46" t="n">
-        <v>88.29766032133946</v>
+        <v>82.66165768680997</v>
       </c>
       <c r="L46" t="n">
         <v>165.78549482202</v>
@@ -38184,13 +38184,13 @@
         <v>188.1733114527919</v>
       </c>
       <c r="N46" t="n">
-        <v>185.0400343749588</v>
+        <v>190.6760370094883</v>
       </c>
       <c r="O46" t="n">
-        <v>294.7082188526632</v>
+        <v>164.3482495370789</v>
       </c>
       <c r="P46" t="n">
-        <v>121.0870361379582</v>
+        <v>251.4470054535425</v>
       </c>
       <c r="Q46" t="n">
         <v>3.456764010152483</v>
